--- a/backlog-consolidado/backlog_consolidado.xlsx
+++ b/backlog-consolidado/backlog_consolidado.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G230"/>
+  <dimension ref="A1:G159"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,13 +473,25 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>TIN - Tecnologia de Infraestrutura</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
+          <t>KaizenWEG - Consultoria no desenvolvimento do APP no O365</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Backlog</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>evandrol</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>60</v>
+      </c>
       <c r="F2" t="inlineStr">
         <is>
           <t>TIN - Tecnologia de Infraestrutura</t>
@@ -494,13 +506,25 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Collaboration Systems</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
+          <t>1000025126 - Portal de Controles Internos TI</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Backlog</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>evandrol</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>240</v>
+      </c>
       <c r="F3" t="inlineStr">
         <is>
           <t>TIN - Tecnologia de Infraestrutura</t>
@@ -515,7 +539,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>KaizenWEG - Consultoria no desenvolvimento do APP no O365</t>
+          <t>Elevação de Maturidade Power Platform - Nível 3</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -532,7 +556,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>60</v>
+        <v>250</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -548,7 +572,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>1000025126 - Portal de Controles Internos TI</t>
+          <t>Elevação de Maturidade Power Platform - Nível 3</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -561,11 +585,11 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>evandrol</t>
+          <t>ijunges</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>240</v>
+        <v>120</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -594,11 +618,11 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>evandrol</t>
+          <t>thomasd</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>250</v>
+        <v>60</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -614,7 +638,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Elevação de Maturidade Power Platform - Nível 3</t>
+          <t>Migração SharePoint Onda 3</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -627,11 +651,11 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>ijunges</t>
+          <t>evandrol</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -647,7 +671,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Elevação de Maturidade Power Platform - Nível 3</t>
+          <t>Migração SharePoint Onda 3</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -660,7 +684,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>thomasd</t>
+          <t>ijunges</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -693,11 +717,11 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>evandrol</t>
+          <t>jpraxedes</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>160</v>
+        <v>520</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -726,11 +750,11 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>ijunges</t>
+          <t>thomasd</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>60</v>
+        <v>260</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -746,7 +770,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Migração SharePoint Onda 3</t>
+          <t>Proposta colaboração NAS X Sharepoint</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -759,11 +783,11 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>jpraxedes</t>
+          <t>evandrol</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>520</v>
+        <v>80</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -779,7 +803,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Migração SharePoint Onda 3</t>
+          <t>Proposta colaboração NAS X Sharepoint</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -792,11 +816,11 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>thomasd</t>
+          <t>ijunges</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>260</v>
+        <v>80</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -825,11 +849,11 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>evandrol</t>
+          <t>thomasd</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -845,7 +869,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Proposta colaboração NAS X Sharepoint</t>
+          <t>Renovação Contrato Microsoft/Office365</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -858,11 +882,11 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>ijunges</t>
+          <t>evandrol</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>80</v>
+        <v>24</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -878,7 +902,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Proposta colaboração NAS X Sharepoint</t>
+          <t>Renovação Contrato Microsoft/Office365</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -891,11 +915,11 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>thomasd</t>
+          <t>ijunges</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -924,11 +948,11 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>evandrol</t>
+          <t>thomasd</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>24</v>
+        <v>100</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -944,12 +968,12 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Renovação Contrato Microsoft/Office365</t>
+          <t>1000027483 - Projeto de Infraestrutura SAP TDF</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Backlog</t>
+          <t>Parado</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -957,32 +981,32 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>ijunges</t>
+          <t>eduardos</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>TIN - Tecnologia de Infraestrutura</t>
+          <t xml:space="preserve">1000028744 - Renovar contrato de Internet das Unidade </t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Collaboration Systems</t>
+          <t>1000029193 - Reavaliação de Solução de Virtualização</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Renovação Contrato Microsoft/Office365</t>
+          <t>Implantação SIG TI</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Backlog</t>
+          <t>Não iniciado</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -990,32 +1014,30 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>thomasd</t>
-        </is>
-      </c>
-      <c r="E18" t="n">
-        <v>100</v>
-      </c>
+          <t>thaisgarcia</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr">
         <is>
-          <t>TIN - Tecnologia de Infraestrutura</t>
+          <t xml:space="preserve">1000028744 - Renovar contrato de Internet das Unidade </t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Collaboration Systems</t>
+          <t>1000029193 - Reavaliação de Solução de Virtualização</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t xml:space="preserve">1000028744 - Renovar contrato de Internet das Unidade </t>
+          <t>1000028971 - Aprovar Utilização Arquivamento de Dados</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Não iniciado</t>
+          <t>Backlog</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -1023,32 +1045,32 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>eduardojc</t>
+          <t>giovanilg</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t xml:space="preserve">1000028744 - Renovar contrato de Internet das Unidade </t>
+          <t>Implantação nova fábrica WEG Servia</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>1000029193 - Reavaliação de Solução de Virtualização</t>
+          <t xml:space="preserve">Cluster de Backup </t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>1000029193 - Reavaliação de Solução de Virtualização</t>
+          <t>1000028971 - Aprovar Utilização Arquivamento de Dados</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Não iniciado</t>
+          <t>Backlog</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -1056,32 +1078,32 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>eduardojc</t>
+          <t>claudioa</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>65</v>
+        <v>224</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t xml:space="preserve">1000028744 - Renovar contrato de Internet das Unidade </t>
+          <t>Implantação nova fábrica WEG Servia</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>1000029193 - Reavaliação de Solução de Virtualização</t>
+          <t xml:space="preserve">Cluster de Backup </t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>1000027483 - Projeto de Infraestrutura SAP TDF</t>
+          <t>1000029193 - Reavaliação de Solução de Virtualização</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Parado</t>
+          <t>Backlog</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -1089,32 +1111,32 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>eduardos</t>
+          <t>samarone</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t xml:space="preserve">1000028744 - Renovar contrato de Internet das Unidade </t>
+          <t>Implantação nova fábrica WEG Servia</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>1000029193 - Reavaliação de Solução de Virtualização</t>
+          <t xml:space="preserve">Cluster de Backup </t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Implantação SIG TI</t>
+          <t>1000029193 - Reavaliação de Solução de Virtualização</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Não iniciado</t>
+          <t>Backlog</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -1122,280 +1144,522 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>thaisgarcia</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr"/>
+          <t>epiccoli</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>21</v>
+      </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t xml:space="preserve">1000028744 - Renovar contrato de Internet das Unidade </t>
+          <t>Implantação nova fábrica WEG Servia</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
+          <t xml:space="preserve">Cluster de Backup </t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
           <t>1000029193 - Reavaliação de Solução de Virtualização</t>
         </is>
       </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr"/>
-      <c r="B23" t="inlineStr"/>
-      <c r="C23" t="inlineStr"/>
-      <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr"/>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Backlog</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>claudioa</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>15</v>
+      </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t xml:space="preserve">1000028744 - Renovar contrato de Internet das Unidade </t>
+          <t>Implantação nova fábrica WEG Servia</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>1000029193 - Reavaliação de Solução de Virtualização</t>
+          <t xml:space="preserve">Cluster de Backup </t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr"/>
-      <c r="B24" t="inlineStr"/>
-      <c r="C24" t="inlineStr"/>
-      <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr"/>
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Implantação da Estratégia Solução de Virtualização Datacenter JGS</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Backlog</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>mekelburg</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>60</v>
+      </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t xml:space="preserve">1000028744 - Renovar contrato de Internet das Unidade </t>
+          <t>Implantação nova fábrica WEG Servia</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>1000029193 - Reavaliação de Solução de Virtualização</t>
+          <t xml:space="preserve">Cluster de Backup </t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr"/>
-      <c r="B25" t="inlineStr"/>
-      <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr"/>
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Implantação da Estratégia Solução de Virtualização Datacenter JGS</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Backlog</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>claudioa</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>32</v>
+      </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t xml:space="preserve">1000028744 - Renovar contrato de Internet das Unidade </t>
+          <t>Implantação nova fábrica WEG Servia</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>1000029193 - Reavaliação de Solução de Virtualização</t>
+          <t xml:space="preserve">Cluster de Backup </t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr"/>
-      <c r="B26" t="inlineStr"/>
-      <c r="C26" t="inlineStr"/>
-      <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr"/>
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Implantação da Estratégia Solução de Virtualização Datacenter JGS</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Backlog</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>davidl</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>32</v>
+      </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t xml:space="preserve">1000028744 - Renovar contrato de Internet das Unidade </t>
+          <t>Implantação nova fábrica WEG Servia</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>1000029193 - Reavaliação de Solução de Virtualização</t>
+          <t xml:space="preserve">Cluster de Backup </t>
         </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr"/>
-      <c r="B27" t="inlineStr"/>
-      <c r="C27" t="inlineStr"/>
-      <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr"/>
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Implantação da Estratégia Solução de Virtualização Datacenter JGS</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Backlog</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>epiccoli</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>32</v>
+      </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t xml:space="preserve">1000028744 - Renovar contrato de Internet das Unidade </t>
+          <t>Implantação nova fábrica WEG Servia</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>1000029193 - Reavaliação de Solução de Virtualização</t>
+          <t xml:space="preserve">Cluster de Backup </t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr"/>
-      <c r="B28" t="inlineStr"/>
-      <c r="C28" t="inlineStr"/>
-      <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr"/>
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Implantação da Estratégia Solução de Virtualização Datacenter JGS</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Backlog</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>giovanilg</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>32</v>
+      </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t xml:space="preserve">1000028744 - Renovar contrato de Internet das Unidade </t>
+          <t>Implantação nova fábrica WEG Servia</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>1000029193 - Reavaliação de Solução de Virtualização</t>
+          <t xml:space="preserve">Cluster de Backup </t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr"/>
-      <c r="B29" t="inlineStr"/>
-      <c r="C29" t="inlineStr"/>
-      <c r="D29" t="inlineStr"/>
-      <c r="E29" t="inlineStr"/>
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Implantação da EstratégiaSolução de Virtualização Filiais Exterior</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Backlog</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>mekelburg</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>40</v>
+      </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t xml:space="preserve">1000028744 - Renovar contrato de Internet das Unidade </t>
+          <t>Implantação nova fábrica WEG Servia</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>1000029193 - Reavaliação de Solução de Virtualização</t>
+          <t xml:space="preserve">Cluster de Backup </t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr"/>
-      <c r="B30" t="inlineStr"/>
-      <c r="C30" t="inlineStr"/>
-      <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr"/>
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Implantação da EstratégiaSolução de Virtualização Filiais Exterior</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Backlog</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>claudioa</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>32</v>
+      </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t xml:space="preserve">1000028744 - Renovar contrato de Internet das Unidade </t>
+          <t>Implantação nova fábrica WEG Servia</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>1000029193 - Reavaliação de Solução de Virtualização</t>
+          <t xml:space="preserve">Cluster de Backup </t>
         </is>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr"/>
-      <c r="B31" t="inlineStr"/>
-      <c r="C31" t="inlineStr"/>
-      <c r="D31" t="inlineStr"/>
-      <c r="E31" t="inlineStr"/>
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Implantação da EstratégiaSolução de Virtualização Filiais Exterior</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Backlog</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>davidl</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>32</v>
+      </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t xml:space="preserve">1000028744 - Renovar contrato de Internet das Unidade </t>
+          <t>Implantação nova fábrica WEG Servia</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>1000029193 - Reavaliação de Solução de Virtualização</t>
+          <t xml:space="preserve">Cluster de Backup </t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr"/>
-      <c r="B32" t="inlineStr"/>
-      <c r="C32" t="inlineStr"/>
-      <c r="D32" t="inlineStr"/>
-      <c r="E32" t="inlineStr"/>
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Implantação da EstratégiaSolução de Virtualização Filiais Exterior</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Backlog</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>epiccoli</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>32</v>
+      </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t xml:space="preserve">1000028744 - Renovar contrato de Internet das Unidade </t>
+          <t>Implantação nova fábrica WEG Servia</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>1000029193 - Reavaliação de Solução de Virtualização</t>
+          <t xml:space="preserve">Cluster de Backup </t>
         </is>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr"/>
-      <c r="B33" t="inlineStr"/>
-      <c r="C33" t="inlineStr"/>
-      <c r="D33" t="inlineStr"/>
-      <c r="E33" t="inlineStr"/>
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Implantação da EstratégiaSolução de Virtualização Filiais Exterior</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Backlog</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>giovanilg</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>32</v>
+      </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t xml:space="preserve">1000028744 - Renovar contrato de Internet das Unidade </t>
+          <t>Implantação nova fábrica WEG Servia</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>1000029193 - Reavaliação de Solução de Virtualização</t>
+          <t xml:space="preserve">Cluster de Backup </t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr"/>
-      <c r="B34" t="inlineStr"/>
-      <c r="C34" t="inlineStr"/>
-      <c r="D34" t="inlineStr"/>
-      <c r="E34" t="inlineStr"/>
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>1000027483 - Projeto de Infraestrutura SAP TDF</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Backlog</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>samarone</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>106</v>
+      </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t xml:space="preserve">1000028744 - Renovar contrato de Internet das Unidade </t>
+          <t>Implantação nova fábrica WEG Servia</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>1000029193 - Reavaliação de Solução de Virtualização</t>
+          <t xml:space="preserve">Cluster de Backup </t>
         </is>
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr"/>
-      <c r="B35" t="inlineStr"/>
-      <c r="C35" t="inlineStr"/>
-      <c r="D35" t="inlineStr"/>
-      <c r="E35" t="inlineStr"/>
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>1000027483 - Projeto de Infraestrutura SAP TDF</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Backlog</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>epiccoli</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>28</v>
+      </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t xml:space="preserve">1000028744 - Renovar contrato de Internet das Unidade </t>
+          <t>Implantação nova fábrica WEG Servia</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>1000029193 - Reavaliação de Solução de Virtualização</t>
+          <t xml:space="preserve">Cluster de Backup </t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr"/>
-      <c r="B36" t="inlineStr"/>
-      <c r="C36" t="inlineStr"/>
-      <c r="D36" t="inlineStr"/>
-      <c r="E36" t="inlineStr"/>
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Implantar nova estrutura de Backup e Arquivamento</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Backlog</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>claudioa</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>148</v>
+      </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t xml:space="preserve">1000028744 - Renovar contrato de Internet das Unidade </t>
+          <t>Implantação nova fábrica WEG Servia</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>1000029193 - Reavaliação de Solução de Virtualização</t>
+          <t xml:space="preserve">Cluster de Backup </t>
         </is>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr"/>
-      <c r="B37" t="inlineStr"/>
-      <c r="C37" t="inlineStr"/>
-      <c r="D37" t="inlineStr"/>
-      <c r="E37" t="inlineStr"/>
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Implantar nova estrutura de Backup e Arquivamento</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Backlog</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>epiccoli</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>16</v>
+      </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t xml:space="preserve">1000028744 - Renovar contrato de Internet das Unidade </t>
+          <t>Implantação nova fábrica WEG Servia</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>1000029193 - Reavaliação de Solução de Virtualização</t>
+          <t xml:space="preserve">Cluster de Backup </t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Implantação nova fábrica WEG Servia</t>
+          <t>Implantar nova estrutura de Backup e Arquivamento</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1403,18 +1667,16 @@
           <t>Backlog</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>2025-2026</t>
-        </is>
+      <c r="C38" t="n">
+        <v>2025</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>davidl</t>
+          <t>giovanilg</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
@@ -1430,7 +1692,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cluster de Backup </t>
+          <t>Implantar nova estrutura de Backup e Arquivamento</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1443,10 +1705,12 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>giovanilg</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr"/>
+          <t>samarone</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>80</v>
+      </c>
       <c r="F39" t="inlineStr">
         <is>
           <t>Implantação nova fábrica WEG Servia</t>
@@ -1461,7 +1725,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>1000028971 - Aprovar Utilização Arquivamento de Dados</t>
+          <t>Implementação da rede SAN</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1469,16 +1733,18 @@
           <t>Backlog</t>
         </is>
       </c>
-      <c r="C40" t="n">
-        <v>2025</v>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>2024-2025</t>
+        </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>giovanilg</t>
+          <t>mekelburg</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>72</v>
+        <v>320</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
@@ -1494,7 +1760,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>1000028971 - Aprovar Utilização Arquivamento de Dados</t>
+          <t>Implementação da rede SAN</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1502,16 +1768,18 @@
           <t>Backlog</t>
         </is>
       </c>
-      <c r="C41" t="n">
-        <v>2025</v>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>2024-2025</t>
+        </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>claudioa</t>
+          <t>epiccoli</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>224</v>
+        <v>24</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
@@ -1527,7 +1795,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>1000029193 - Reavaliação de Solução de Virtualização</t>
+          <t>Implementação da rede SAN</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1535,8 +1803,10 @@
           <t>Backlog</t>
         </is>
       </c>
-      <c r="C42" t="n">
-        <v>2025</v>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>2024-2025</t>
+        </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -1544,7 +1814,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>16</v>
+        <v>80</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
@@ -1560,7 +1830,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>1000029193 - Reavaliação de Solução de Virtualização</t>
+          <t>Infraestrutura IBM POWER - SAP ECC</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1568,16 +1838,18 @@
           <t>Backlog</t>
         </is>
       </c>
-      <c r="C43" t="n">
-        <v>2025</v>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>2024-2025</t>
+        </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>epiccoli</t>
+          <t>mekelburg</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>21</v>
+        <v>600</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
@@ -1593,7 +1865,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>1000029193 - Reavaliação de Solução de Virtualização</t>
+          <t>Infraestrutura IBM POWER - SAP ECC</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1601,16 +1873,18 @@
           <t>Backlog</t>
         </is>
       </c>
-      <c r="C44" t="n">
-        <v>2025</v>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>2024-2025</t>
+        </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>claudioa</t>
+          <t>epiccoli</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>15</v>
+        <v>80</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
@@ -1626,7 +1900,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Implantação da Estratégia Solução de Virtualização Datacenter JGS</t>
+          <t>Infraestrutura IBM POWER - SAP ECC</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1634,16 +1908,18 @@
           <t>Backlog</t>
         </is>
       </c>
-      <c r="C45" t="n">
-        <v>2025</v>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>2024-2025</t>
+        </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>mekelburg</t>
+          <t>samarone</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
@@ -1659,7 +1935,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Implantação da Estratégia Solução de Virtualização Datacenter JGS</t>
+          <t>Migrar a infraestrutura SAP ECC WAE</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1667,12 +1943,14 @@
           <t>Backlog</t>
         </is>
       </c>
-      <c r="C46" t="n">
-        <v>2025</v>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>2024-2025</t>
+        </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>claudioa</t>
+          <t>davidl</t>
         </is>
       </c>
       <c r="E46" t="n">
@@ -1692,7 +1970,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Implantação da Estratégia Solução de Virtualização Datacenter JGS</t>
+          <t>Migrar a infraestrutura SAP ECC WAE</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1700,16 +1978,18 @@
           <t>Backlog</t>
         </is>
       </c>
-      <c r="C47" t="n">
-        <v>2025</v>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>2024-2025</t>
+        </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>davidl</t>
+          <t>epiccoli</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
@@ -1725,7 +2005,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Implantação da Estratégia Solução de Virtualização Datacenter JGS</t>
+          <t>Migrar a infraestrutura SAP ECC WAE</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1733,16 +2013,18 @@
           <t>Backlog</t>
         </is>
       </c>
-      <c r="C48" t="n">
-        <v>2025</v>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>2024-2025</t>
+        </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>epiccoli</t>
+          <t>samarone</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>32</v>
+        <v>160</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
@@ -1758,7 +2040,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Implantação da Estratégia Solução de Virtualização Datacenter JGS</t>
+          <t>Nova Arquitetura de File Server para JGS</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1766,12 +2048,14 @@
           <t>Backlog</t>
         </is>
       </c>
-      <c r="C49" t="n">
-        <v>2025</v>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>giovanilg</t>
+          <t>claudioa</t>
         </is>
       </c>
       <c r="E49" t="n">
@@ -1791,7 +2075,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Implantação da EstratégiaSolução de Virtualização Filiais Exterior</t>
+          <t>Nova Arquitetura de File Server para JGS</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -1799,16 +2083,18 @@
           <t>Backlog</t>
         </is>
       </c>
-      <c r="C50" t="n">
-        <v>2025</v>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>mekelburg</t>
+          <t>davidl</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
@@ -1824,7 +2110,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Implantação da EstratégiaSolução de Virtualização Filiais Exterior</t>
+          <t>Nova Arquitetura de File Server para JGS</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -1832,12 +2118,14 @@
           <t>Backlog</t>
         </is>
       </c>
-      <c r="C51" t="n">
-        <v>2025</v>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>claudioa</t>
+          <t>epiccoli</t>
         </is>
       </c>
       <c r="E51" t="n">
@@ -1857,7 +2145,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Implantação da EstratégiaSolução de Virtualização Filiais Exterior</t>
+          <t>Nova Arquitetura de File Server para JGS</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -1865,16 +2153,18 @@
           <t>Backlog</t>
         </is>
       </c>
-      <c r="C52" t="n">
-        <v>2025</v>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>davidl</t>
+          <t>samarone</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
@@ -1890,7 +2180,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Implantação da EstratégiaSolução de Virtualização Filiais Exterior</t>
+          <t>Renovação infra India Bangalore</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -1898,16 +2188,18 @@
           <t>Backlog</t>
         </is>
       </c>
-      <c r="C53" t="n">
-        <v>2025</v>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>epiccoli</t>
+          <t>samarone</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>32</v>
+        <v>68</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
@@ -1923,7 +2215,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Implantação da EstratégiaSolução de Virtualização Filiais Exterior</t>
+          <t>Revisão do contrato Microsoft</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -1931,40 +2223,54 @@
           <t>Backlog</t>
         </is>
       </c>
-      <c r="C54" t="n">
-        <v>2025</v>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>giovanilg</t>
+          <t>davidl</t>
         </is>
       </c>
       <c r="E54" t="n">
+        <v>72</v>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Implantação nova fábrica WEG Servia</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cluster de Backup </t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Arquitetura DDoS</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Backlog</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>mekelburg</t>
+        </is>
+      </c>
+      <c r="E55" t="n">
         <v>32</v>
       </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>Implantação nova fábrica WEG Servia</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cluster de Backup </t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr"/>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>Backlog</t>
-        </is>
-      </c>
-      <c r="C55" t="n">
-        <v>2025</v>
-      </c>
-      <c r="D55" t="inlineStr"/>
-      <c r="E55" t="inlineStr"/>
       <c r="F55" t="inlineStr">
         <is>
           <t>Implantação nova fábrica WEG Servia</t>
@@ -1979,7 +2285,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>1000027483 - Projeto de Infraestrutura SAP TDF</t>
+          <t>Arquitetura DDoS</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -1987,16 +2293,18 @@
           <t>Backlog</t>
         </is>
       </c>
-      <c r="C56" t="n">
-        <v>2025</v>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>samarone</t>
+          <t>davidl</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>106</v>
+        <v>16</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
@@ -2012,7 +2320,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>1000027483 - Projeto de Infraestrutura SAP TDF</t>
+          <t>Arquitetura DDoS</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2020,8 +2328,10 @@
           <t>Backlog</t>
         </is>
       </c>
-      <c r="C57" t="n">
-        <v>2025</v>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -2029,7 +2339,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
@@ -2045,7 +2355,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Implantar nova estrutura de Backup e Arquivamento</t>
+          <t>Arquitetura de Cyber Segurança WEG (SASE, ZTNA, Cloud)</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2053,16 +2363,18 @@
           <t>Backlog</t>
         </is>
       </c>
-      <c r="C58" t="n">
-        <v>2025</v>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>claudioa</t>
+          <t>davidl</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>148</v>
+        <v>16</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
@@ -2078,7 +2390,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Implantar nova estrutura de Backup e Arquivamento</t>
+          <t>Arquitetura de Cyber Segurança WEG (SASE, ZTNA, Cloud)</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2086,8 +2398,10 @@
           <t>Backlog</t>
         </is>
       </c>
-      <c r="C59" t="n">
-        <v>2025</v>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -2095,7 +2409,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
@@ -2111,7 +2425,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Implantar nova estrutura de Backup e Arquivamento</t>
+          <t>Arquitetura de Cyber Segurança WEG (SASE, ZTNA, Cloud)</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2119,16 +2433,18 @@
           <t>Backlog</t>
         </is>
       </c>
-      <c r="C60" t="n">
-        <v>2025</v>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>giovanilg</t>
+          <t>samarone</t>
         </is>
       </c>
       <c r="E60" t="n">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
@@ -2144,7 +2460,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Implantar nova estrutura de Backup e Arquivamento</t>
+          <t>Arquitetura S/4HANA</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2152,16 +2468,18 @@
           <t>Backlog</t>
         </is>
       </c>
-      <c r="C61" t="n">
-        <v>2025</v>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>samarone</t>
+          <t>mekelburg</t>
         </is>
       </c>
       <c r="E61" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
@@ -2177,7 +2495,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Implementação da rede SAN</t>
+          <t>Arquitetura S/4HANA</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2187,16 +2505,16 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>2024-2025</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>mekelburg</t>
+          <t>epiccoli</t>
         </is>
       </c>
       <c r="E62" t="n">
-        <v>320</v>
+        <v>24</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
@@ -2212,7 +2530,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Implementação da rede SAN</t>
+          <t>Arquitetura S/4HANA</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2222,16 +2540,16 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>2024-2025</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>epiccoli</t>
+          <t>giovanilg</t>
         </is>
       </c>
       <c r="E63" t="n">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
@@ -2247,7 +2565,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Implementação da rede SAN</t>
+          <t>Backup OFFSITE (riscos internos)</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2257,16 +2575,16 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>2024-2025</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>samarone</t>
+          <t>epiccoli</t>
         </is>
       </c>
       <c r="E64" t="n">
-        <v>80</v>
+        <v>16</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
@@ -2282,7 +2600,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Infraestrutura IBM POWER - SAP ECC</t>
+          <t>Backup OFFSITE (riscos internos)</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2292,16 +2610,16 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>2024-2025</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>mekelburg</t>
+          <t>giovanilg</t>
         </is>
       </c>
       <c r="E65" t="n">
-        <v>600</v>
+        <v>80</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
@@ -2317,7 +2635,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Infraestrutura IBM POWER - SAP ECC</t>
+          <t>Backup OFFSITE (riscos internos)</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2327,16 +2645,16 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>2024-2025</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>epiccoli</t>
+          <t>samarone</t>
         </is>
       </c>
       <c r="E66" t="n">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
@@ -2352,7 +2670,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Infraestrutura IBM POWER - SAP ECC</t>
+          <t>DR Site JGS</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2367,11 +2685,11 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>samarone</t>
+          <t>mekelburg</t>
         </is>
       </c>
       <c r="E67" t="n">
-        <v>40</v>
+        <v>112</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
@@ -2387,7 +2705,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Migrar a infraestrutura SAP ECC WAE</t>
+          <t>DR Site JGS</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2402,11 +2720,11 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>davidl</t>
+          <t>claudioa</t>
         </is>
       </c>
       <c r="E68" t="n">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
@@ -2422,7 +2740,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Migrar a infraestrutura SAP ECC WAE</t>
+          <t>DR Site JGS</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2457,7 +2775,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Migrar a infraestrutura SAP ECC WAE</t>
+          <t>DR Site JGS</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2476,7 +2794,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>160</v>
+        <v>4</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
@@ -2492,7 +2810,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Nova Arquitetura de File Server para JGS</t>
+          <t>DR Site JGS</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2502,16 +2820,16 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>2025</t>
+          <t>2024-2025</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>claudioa</t>
+          <t>davidl</t>
         </is>
       </c>
       <c r="E71" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
@@ -2527,7 +2845,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Nova Arquitetura de File Server para JGS</t>
+          <t>Implantação Nova Fábrica na Servia</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2546,7 +2864,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>60</v>
+        <v>160</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
@@ -2562,7 +2880,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Nova Arquitetura de File Server para JGS</t>
+          <t>Estudo SDWAN - implementação filiais exterior</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2577,11 +2895,11 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>epiccoli</t>
+          <t>mekelburg</t>
         </is>
       </c>
       <c r="E73" t="n">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
@@ -2597,7 +2915,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Nova Arquitetura de File Server para JGS</t>
+          <t>Estudo SDWAN - implementação filiais exterior</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2612,11 +2930,11 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>samarone</t>
+          <t>claudioa</t>
         </is>
       </c>
       <c r="E74" t="n">
-        <v>60</v>
+        <v>8</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
@@ -2632,7 +2950,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Renovação infra India Bangalore</t>
+          <t>Estudo SDWAN - implementação filiais exterior</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2642,16 +2960,16 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>2024</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>samarone</t>
+          <t>epiccoli</t>
         </is>
       </c>
       <c r="E75" t="n">
-        <v>68</v>
+        <v>16</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
@@ -2667,7 +2985,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Revisão do contrato Microsoft</t>
+          <t>Implantação telefonia WEG Austrália</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2682,11 +3000,11 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>davidl</t>
+          <t>samarone</t>
         </is>
       </c>
       <c r="E76" t="n">
-        <v>72</v>
+        <v>24</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
@@ -2702,7 +3020,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Arquitetura DDoS</t>
+          <t>Implantação telefonia WEG Cestari - Monte Alto</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2717,11 +3035,11 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>mekelburg</t>
+          <t>davidl</t>
         </is>
       </c>
       <c r="E77" t="n">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
@@ -2737,7 +3055,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Arquitetura DDoS</t>
+          <t>Implantação telefonia WEG Argentina - Cordoba e San Francisco</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2756,7 +3074,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
@@ -2772,7 +3090,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Arquitetura DDoS</t>
+          <t>Implantação telefonia PPI - SP</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2787,11 +3105,11 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>epiccoli</t>
+          <t>samarone</t>
         </is>
       </c>
       <c r="E79" t="n">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
@@ -2807,7 +3125,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Arquitetura de Cyber Segurança WEG (SASE, ZTNA, Cloud)</t>
+          <t>Implantação telefonia WEG Africa</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2822,11 +3140,11 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>davidl</t>
+          <t>samarone</t>
         </is>
       </c>
       <c r="E80" t="n">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
@@ -2842,7 +3160,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Arquitetura de Cyber Segurança WEG (SASE, ZTNA, Cloud)</t>
+          <t>Implantação telefonia WEG São Bernardo - SP</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -2857,11 +3175,11 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>epiccoli</t>
+          <t>samarone</t>
         </is>
       </c>
       <c r="E81" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
@@ -2877,7 +3195,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Arquitetura de Cyber Segurança WEG (SASE, ZTNA, Cloud)</t>
+          <t xml:space="preserve">Implantação telefonia Escritório de Sorocaba - Seção Produtos de Inteligência Artificial </t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -2892,11 +3210,11 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>samarone</t>
+          <t>davidl</t>
         </is>
       </c>
       <c r="E82" t="n">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
@@ -2912,7 +3230,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Arquitetura S/4HANA</t>
+          <t>Implantação telefonia Suécia - WSC</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -2927,11 +3245,11 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>mekelburg</t>
+          <t>samarone</t>
         </is>
       </c>
       <c r="E83" t="n">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
@@ -2947,7 +3265,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Arquitetura S/4HANA</t>
+          <t>Infraestrutura Multi (Equinix)</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -2966,7 +3284,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>24</v>
+        <v>104</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
@@ -2982,7 +3300,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Arquitetura S/4HANA</t>
+          <t>WIS ZEST</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -2997,11 +3315,11 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>giovanilg</t>
+          <t>davidl</t>
         </is>
       </c>
       <c r="E85" t="n">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
@@ -3017,7 +3335,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Backup OFFSITE (riscos internos)</t>
+          <t>WIS ZEST</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -3032,11 +3350,11 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>epiccoli</t>
+          <t>samarone</t>
         </is>
       </c>
       <c r="E86" t="n">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
@@ -3052,7 +3370,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Backup OFFSITE (riscos internos)</t>
+          <t>Projeto SDWAN - implementação filiais nacionais</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -3067,11 +3385,11 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>giovanilg</t>
+          <t>mekelburg</t>
         </is>
       </c>
       <c r="E87" t="n">
-        <v>80</v>
+        <v>24</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
@@ -3087,7 +3405,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Backup OFFSITE (riscos internos)</t>
+          <t>Projeto SDWAN - implementação filiais nacionais</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -3102,11 +3420,11 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>samarone</t>
+          <t>epiccoli</t>
         </is>
       </c>
       <c r="E88" t="n">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
@@ -3122,7 +3440,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>DR Site JGS</t>
+          <t>Revisão do contrato Oracle (ULA)</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -3132,7 +3450,7 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>2024-2025</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -3141,7 +3459,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>112</v>
+        <v>156</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
@@ -3157,7 +3475,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>DR Site JGS</t>
+          <t>Revisão do contrato Oracle (ULA)</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -3172,11 +3490,11 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>claudioa</t>
+          <t>giovanilg</t>
         </is>
       </c>
       <c r="E90" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
@@ -3192,7 +3510,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>DR Site JGS</t>
+          <t>Atualização da proposta de integração da Balteau ao WEGNET</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -3202,16 +3520,16 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>2024-2025</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>epiccoli</t>
+          <t>davidl</t>
         </is>
       </c>
       <c r="E91" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
@@ -3227,7 +3545,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>DR Site JGS</t>
+          <t>Rancher Backup</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -3235,34 +3553,30 @@
           <t>Backlog</t>
         </is>
       </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>2024-2025</t>
-        </is>
+      <c r="C92" t="n">
+        <v>2025</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>samarone</t>
-        </is>
-      </c>
-      <c r="E92" t="n">
-        <v>4</v>
-      </c>
+          <t>epiccoli</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr"/>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Implantação nova fábrica WEG Servia</t>
+          <t>Estudo, criação e testes de Cluster NFS</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cluster de Backup </t>
+          <t>Migração Rancher RKE2</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>DR Site JGS</t>
+          <t>Criar e Revisar Desenhos de arquitetura</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -3270,34 +3584,30 @@
           <t>Backlog</t>
         </is>
       </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>2024-2025</t>
-        </is>
+      <c r="C93" t="n">
+        <v>2025</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>davidl</t>
-        </is>
-      </c>
-      <c r="E93" t="n">
-        <v>40</v>
-      </c>
+          <t>epiccoli</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr"/>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Implantação nova fábrica WEG Servia</t>
+          <t>Estudo, criação e testes de Cluster NFS</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cluster de Backup </t>
+          <t>Migração Rancher RKE2</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Implantação Nova Fábrica na Servia</t>
+          <t>Arquitetura para solução Aplicação (DSDT &amp; PAU) WTU / WTD (solicitação Jair e Guilherme Trevisani)</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -3305,34 +3615,30 @@
           <t>Backlog</t>
         </is>
       </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>2025</t>
-        </is>
+      <c r="C94" t="n">
+        <v>2025</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>davidl</t>
-        </is>
-      </c>
-      <c r="E94" t="n">
-        <v>160</v>
-      </c>
+          <t>epiccoli</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr"/>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Implantação nova fábrica WEG Servia</t>
+          <t>Estudo, criação e testes de Cluster NFS</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cluster de Backup </t>
+          <t>Migração Rancher RKE2</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Estudo SDWAN - implementação filiais exterior</t>
+          <t>Novas ferramentas de observabilidade</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -3340,34 +3646,30 @@
           <t>Backlog</t>
         </is>
       </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>2025</t>
-        </is>
+      <c r="C95" t="n">
+        <v>2025</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>mekelburg</t>
-        </is>
-      </c>
-      <c r="E95" t="n">
-        <v>16</v>
-      </c>
+          <t>epiccoli</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr"/>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Implantação nova fábrica WEG Servia</t>
+          <t>Estudo, criação e testes de Cluster NFS</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cluster de Backup </t>
+          <t>Migração Rancher RKE2</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Estudo SDWAN - implementação filiais exterior</t>
+          <t>Estruturar Cluster Rancher na AWS Multi-propÃ³sito</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -3375,34 +3677,30 @@
           <t>Backlog</t>
         </is>
       </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>2025</t>
-        </is>
+      <c r="C96" t="n">
+        <v>2025</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>claudioa</t>
-        </is>
-      </c>
-      <c r="E96" t="n">
-        <v>8</v>
-      </c>
+          <t>epiccoli</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr"/>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Implantação nova fábrica WEG Servia</t>
+          <t>Estudo, criação e testes de Cluster NFS</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cluster de Backup </t>
+          <t>Migração Rancher RKE2</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Estudo SDWAN - implementação filiais exterior</t>
+          <t>Avaliar Implementação de SLE Micro (sistema operacional imutável e lightweight desenhado para containers e edge)</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -3410,34 +3708,30 @@
           <t>Backlog</t>
         </is>
       </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>2025</t>
-        </is>
+      <c r="C97" t="n">
+        <v>2025</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
           <t>epiccoli</t>
         </is>
       </c>
-      <c r="E97" t="n">
-        <v>16</v>
-      </c>
+      <c r="E97" t="inlineStr"/>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Implantação nova fábrica WEG Servia</t>
+          <t>Estudo, criação e testes de Cluster NFS</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cluster de Backup </t>
+          <t>Migração Rancher RKE2</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Implantação telefonia WEG Austrália</t>
+          <t>Fomentar a migração WEN WTD WBS para Rancher</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -3445,34 +3739,30 @@
           <t>Backlog</t>
         </is>
       </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>2025</t>
-        </is>
+      <c r="C98" t="n">
+        <v>2025</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>samarone</t>
-        </is>
-      </c>
-      <c r="E98" t="n">
-        <v>24</v>
-      </c>
+          <t>claudioa</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr"/>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Implantação nova fábrica WEG Servia</t>
+          <t>Estudo, criação e testes de Cluster NFS</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cluster de Backup </t>
+          <t>Migração Rancher RKE2</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Implantação telefonia WEG Cestari - Monte Alto</t>
+          <t>Fomentar a migração WDS/WDC para Rancher</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -3480,34 +3770,30 @@
           <t>Backlog</t>
         </is>
       </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>2025</t>
-        </is>
+      <c r="C99" t="n">
+        <v>2025</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>davidl</t>
-        </is>
-      </c>
-      <c r="E99" t="n">
-        <v>16</v>
-      </c>
+          <t>epiccoli</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr"/>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Implantação nova fábrica WEG Servia</t>
+          <t>Estudo, criação e testes de Cluster NFS</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cluster de Backup </t>
+          <t>Migração Rancher RKE2</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Implantação telefonia WEG Argentina - Cordoba e San Francisco</t>
+          <t>Fomentar a migração WMO para Rancher</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -3515,34 +3801,30 @@
           <t>Backlog</t>
         </is>
       </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>2025</t>
-        </is>
+      <c r="C100" t="n">
+        <v>2025</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>davidl</t>
-        </is>
-      </c>
-      <c r="E100" t="n">
-        <v>24</v>
-      </c>
+          <t>epiccoli</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr"/>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Implantação nova fábrica WEG Servia</t>
+          <t>Estudo, criação e testes de Cluster NFS</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cluster de Backup </t>
+          <t>Migração Rancher RKE2</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Implantação telefonia PPI - SP</t>
+          <t>Fomentar a migração SOAP para Rancher (Sistemas Iflow e Ifind / OTM4E)</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -3550,34 +3832,30 @@
           <t>Backlog</t>
         </is>
       </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>2025</t>
-        </is>
+      <c r="C101" t="n">
+        <v>2025</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>samarone</t>
-        </is>
-      </c>
-      <c r="E101" t="n">
-        <v>16</v>
-      </c>
+          <t>epiccoli</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr"/>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Implantação nova fábrica WEG Servia</t>
+          <t>Estudo, criação e testes de Cluster NFS</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cluster de Backup </t>
+          <t>Migração Rancher RKE2</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Implantação telefonia WEG Africa</t>
+          <t>Reorganizar VMS com Docker por àrea, aumentar densidade e diminuir VMS</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -3585,34 +3863,30 @@
           <t>Backlog</t>
         </is>
       </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>2025</t>
-        </is>
+      <c r="C102" t="n">
+        <v>2025</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>samarone</t>
-        </is>
-      </c>
-      <c r="E102" t="n">
-        <v>24</v>
-      </c>
+          <t>epiccoli</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr"/>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Implantação nova fábrica WEG Servia</t>
+          <t>Estudo, criação e testes de Cluster NFS</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cluster de Backup </t>
+          <t>Migração Rancher RKE2</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Implantação telefonia WEG São Bernardo - SP</t>
+          <t>Housekeeping Docker Negócio</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -3620,34 +3894,30 @@
           <t>Backlog</t>
         </is>
       </c>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>2025</t>
-        </is>
+      <c r="C103" t="n">
+        <v>2025</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>samarone</t>
-        </is>
-      </c>
-      <c r="E103" t="n">
-        <v>12</v>
-      </c>
+          <t>claudioa</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr"/>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Implantação nova fábrica WEG Servia</t>
+          <t>Estudo, criação e testes de Cluster NFS</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cluster de Backup </t>
+          <t>Migração Rancher RKE2</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t xml:space="preserve">Implantação telefonia Escritório de Sorocaba - Seção Produtos de Inteligência Artificial </t>
+          <t>Housekeeping Docker TI</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -3655,34 +3925,30 @@
           <t>Backlog</t>
         </is>
       </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>2025</t>
-        </is>
+      <c r="C104" t="n">
+        <v>2025</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>davidl</t>
-        </is>
-      </c>
-      <c r="E104" t="n">
-        <v>24</v>
-      </c>
+          <t>epiccoli</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr"/>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Implantação nova fábrica WEG Servia</t>
+          <t>Estudo, criação e testes de Cluster NFS</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cluster de Backup </t>
+          <t>Migração Rancher RKE2</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Implantação telefonia Suécia - WSC</t>
+          <t>Migrar containeres de banco de dados</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -3690,34 +3956,30 @@
           <t>Backlog</t>
         </is>
       </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>2025</t>
-        </is>
+      <c r="C105" t="n">
+        <v>2025</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>samarone</t>
-        </is>
-      </c>
-      <c r="E105" t="n">
-        <v>12</v>
-      </c>
+          <t>epiccoli</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr"/>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Implantação nova fábrica WEG Servia</t>
+          <t>Estudo, criação e testes de Cluster NFS</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cluster de Backup </t>
+          <t>Migração Rancher RKE2</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Infraestrutura Multi (Equinix)</t>
+          <t>Revisão Infraestrutura de TI Biblioteca PFII</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -3727,32 +3989,32 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>2025</t>
+          <t>2024</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>epiccoli</t>
+          <t>franke</t>
         </is>
       </c>
       <c r="E106" t="n">
-        <v>104</v>
+        <v>16</v>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Implantação nova fábrica WEG Servia</t>
+          <t>1000028582 - Rastreamento Ativos WEG</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cluster de Backup </t>
+          <t>WMX-WTD - Novo Prédio Huehuetoca</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>WIS ZEST</t>
+          <t xml:space="preserve">WTK - WMO - Novo Galpão Turquia </t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -3767,27 +4029,27 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>davidl</t>
+          <t>franke</t>
         </is>
       </c>
       <c r="E107" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Implantação nova fábrica WEG Servia</t>
+          <t>1000028582 - Rastreamento Ativos WEG</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cluster de Backup </t>
+          <t>WMX-WTD - Novo Prédio Huehuetoca</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>WIS ZEST</t>
+          <t>WPT | Ampliação rede de Santo Tirso</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -3802,27 +4064,27 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>samarone</t>
+          <t>franke</t>
         </is>
       </c>
       <c r="E108" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>Implantação nova fábrica WEG Servia</t>
+          <t>1000028582 - Rastreamento Ativos WEG</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cluster de Backup </t>
+          <t>WMX-WTD - Novo Prédio Huehuetoca</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Projeto SDWAN - implementação filiais nacionais</t>
+          <t>Implantar WSFM em Hosur India</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -3837,27 +4099,27 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>mekelburg</t>
+          <t>danielh</t>
         </is>
       </c>
       <c r="E109" t="n">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>Implantação nova fábrica WEG Servia</t>
+          <t>1000028582 - Rastreamento Ativos WEG</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cluster de Backup </t>
+          <t>WMX-WTD - Novo Prédio Huehuetoca</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Projeto SDWAN - implementação filiais nacionais</t>
+          <t>Ampliar rede Wi-Fi Stamping Workshop Rugao</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -3872,27 +4134,27 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>epiccoli</t>
+          <t>danielh</t>
         </is>
       </c>
       <c r="E110" t="n">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>Implantação nova fábrica WEG Servia</t>
+          <t>1000028582 - Rastreamento Ativos WEG</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cluster de Backup </t>
+          <t>WMX-WTD - Novo Prédio Huehuetoca</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Revisão do contrato Oracle (ULA)</t>
+          <t>WII - Infraestrutura de Rede Security Gate</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -3907,27 +4169,27 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>mekelburg</t>
+          <t>andreig</t>
         </is>
       </c>
       <c r="E111" t="n">
-        <v>156</v>
+        <v>12</v>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>Implantação nova fábrica WEG Servia</t>
+          <t>1000028582 - Rastreamento Ativos WEG</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cluster de Backup </t>
+          <t>WMX-WTD - Novo Prédio Huehuetoca</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Revisão do contrato Oracle (ULA)</t>
+          <t xml:space="preserve">Criação de rede de LAB apartada da IT Labs - João Estevão </t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -3935,481 +4197,885 @@
           <t>Backlog</t>
         </is>
       </c>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>2024-2025</t>
-        </is>
-      </c>
+      <c r="C112" t="inlineStr"/>
       <c r="D112" t="inlineStr">
         <is>
-          <t>giovanilg</t>
+          <t>danielh</t>
         </is>
       </c>
       <c r="E112" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>Implantação nova fábrica WEG Servia</t>
+          <t>1000028582 - Rastreamento Ativos WEG</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cluster de Backup </t>
+          <t>WMX-WTD - Novo Prédio Huehuetoca</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
+          <t xml:space="preserve">1000028744 - Renovar contrato de Internet das Unidade </t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Backlog</t>
+        </is>
+      </c>
+      <c r="C113" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>franke</t>
+        </is>
+      </c>
+      <c r="E113" t="n">
+        <v>182</v>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>1000028582 - Rastreamento Ativos WEG</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>WMX-WTD - Novo Prédio Huehuetoca</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1000028744 - Renovar contrato de Internet das Unidade </t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>Backlog</t>
+        </is>
+      </c>
+      <c r="C114" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>andreig</t>
+        </is>
+      </c>
+      <c r="E114" t="n">
+        <v>16</v>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>1000028582 - Rastreamento Ativos WEG</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>WMX-WTD - Novo Prédio Huehuetoca</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1000028744 - Renovar contrato de Internet das Unidade </t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Backlog</t>
+        </is>
+      </c>
+      <c r="C115" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>lineujunior</t>
+        </is>
+      </c>
+      <c r="E115" t="n">
+        <v>40</v>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>1000028582 - Rastreamento Ativos WEG</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>WMX-WTD - Novo Prédio Huehuetoca</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Implantação telefonia WEG Cestari - Monte Alto</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Backlog</t>
+        </is>
+      </c>
+      <c r="C116" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>lineujunior</t>
+        </is>
+      </c>
+      <c r="E116" t="n">
+        <v>170</v>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>1000028582 - Rastreamento Ativos WEG</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>WMX-WTD - Novo Prédio Huehuetoca</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Implantação telefonia WEG Cestari - Monte Alto</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>Backlog</t>
+        </is>
+      </c>
+      <c r="C117" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>eduardoat</t>
+        </is>
+      </c>
+      <c r="E117" t="n">
+        <v>45</v>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>1000028582 - Rastreamento Ativos WEG</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>WMX-WTD - Novo Prédio Huehuetoca</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Implantação telefonia WEG Argentina - Cordoba e San Francisco</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>Backlog</t>
+        </is>
+      </c>
+      <c r="C118" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>lineujunior</t>
+        </is>
+      </c>
+      <c r="E118" t="n">
+        <v>230</v>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>1000028582 - Rastreamento Ativos WEG</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>WMX-WTD - Novo Prédio Huehuetoca</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Implantação telefonia WEG Argentina - Cordoba e San Francisco</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>Backlog</t>
+        </is>
+      </c>
+      <c r="C119" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>eduardoat</t>
+        </is>
+      </c>
+      <c r="E119" t="n">
+        <v>70</v>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>1000028582 - Rastreamento Ativos WEG</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>WMX-WTD - Novo Prédio Huehuetoca</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>Implantação telefonia PPI - SP</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>Backlog</t>
+        </is>
+      </c>
+      <c r="C120" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>lineujunior</t>
+        </is>
+      </c>
+      <c r="E120" t="n">
+        <v>105</v>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>1000028582 - Rastreamento Ativos WEG</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>WMX-WTD - Novo Prédio Huehuetoca</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Implantação telefonia WEG Africa</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>Backlog</t>
+        </is>
+      </c>
+      <c r="C121" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>danielh</t>
+        </is>
+      </c>
+      <c r="E121" t="n">
+        <v>275</v>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>1000028582 - Rastreamento Ativos WEG</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>WMX-WTD - Novo Prédio Huehuetoca</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>Implantação telefonia WEG São Bernardo - SP</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>Backlog</t>
+        </is>
+      </c>
+      <c r="C122" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>lineujunior</t>
+        </is>
+      </c>
+      <c r="E122" t="n">
+        <v>24</v>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>1000028582 - Rastreamento Ativos WEG</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>WMX-WTD - Novo Prédio Huehuetoca</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Implantação telefonia Escritório de Sorocaba - Seção Produtos de Inteligência Artificial </t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>Backlog</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>lineujunior</t>
+        </is>
+      </c>
+      <c r="E123" t="n">
+        <v>50</v>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>1000028582 - Rastreamento Ativos WEG</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>WMX-WTD - Novo Prédio Huehuetoca</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>Implantação telefonia Suécia - WSC</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>Backlog</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>lineujunior</t>
+        </is>
+      </c>
+      <c r="E124" t="n">
+        <v>86</v>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>1000028582 - Rastreamento Ativos WEG</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>WMX-WTD - Novo Prédio Huehuetoca</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>WBL - Revisar infraestrutura Wireless para WSFM na Bluffton</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>Backlog</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>danielh</t>
+        </is>
+      </c>
+      <c r="E125" t="n">
+        <v>20</v>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>1000028582 - Rastreamento Ativos WEG</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>WMX-WTD - Novo Prédio Huehuetoca</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>Implantação nova fábrica WEG Servia</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>Backlog</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>franke</t>
+        </is>
+      </c>
+      <c r="E126" t="n">
+        <v>160</v>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>1000028582 - Rastreamento Ativos WEG</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>WMX-WTD - Novo Prédio Huehuetoca</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
           <t>Atualização da proposta de integração da Balteau ao WEGNET</t>
         </is>
       </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>Backlog</t>
-        </is>
-      </c>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>2025</t>
-        </is>
-      </c>
-      <c r="D113" t="inlineStr">
-        <is>
-          <t>davidl</t>
-        </is>
-      </c>
-      <c r="E113" t="n">
-        <v>30</v>
-      </c>
-      <c r="F113" t="inlineStr">
-        <is>
-          <t>Implantação nova fábrica WEG Servia</t>
-        </is>
-      </c>
-      <c r="G113" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cluster de Backup </t>
-        </is>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="inlineStr"/>
-      <c r="B114" t="inlineStr"/>
-      <c r="C114" t="inlineStr"/>
-      <c r="D114" t="inlineStr"/>
-      <c r="E114" t="inlineStr"/>
-      <c r="F114" t="inlineStr">
-        <is>
-          <t>Implantação nova fábrica WEG Servia</t>
-        </is>
-      </c>
-      <c r="G114" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cluster de Backup </t>
-        </is>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="inlineStr"/>
-      <c r="B115" t="inlineStr"/>
-      <c r="C115" t="inlineStr"/>
-      <c r="D115" t="inlineStr"/>
-      <c r="E115" t="inlineStr"/>
-      <c r="F115" t="inlineStr">
-        <is>
-          <t>Implantação nova fábrica WEG Servia</t>
-        </is>
-      </c>
-      <c r="G115" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cluster de Backup </t>
-        </is>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="inlineStr"/>
-      <c r="B116" t="inlineStr"/>
-      <c r="C116" t="inlineStr"/>
-      <c r="D116" t="inlineStr"/>
-      <c r="E116" t="inlineStr"/>
-      <c r="F116" t="inlineStr">
-        <is>
-          <t>Implantação nova fábrica WEG Servia</t>
-        </is>
-      </c>
-      <c r="G116" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cluster de Backup </t>
-        </is>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="inlineStr"/>
-      <c r="B117" t="inlineStr"/>
-      <c r="C117" t="inlineStr"/>
-      <c r="D117" t="inlineStr"/>
-      <c r="E117" t="inlineStr"/>
-      <c r="F117" t="inlineStr">
-        <is>
-          <t>Implantação nova fábrica WEG Servia</t>
-        </is>
-      </c>
-      <c r="G117" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cluster de Backup </t>
-        </is>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="inlineStr"/>
-      <c r="B118" t="inlineStr"/>
-      <c r="C118" t="inlineStr"/>
-      <c r="D118" t="inlineStr"/>
-      <c r="E118" t="inlineStr"/>
-      <c r="F118" t="inlineStr">
-        <is>
-          <t>Implantação nova fábrica WEG Servia</t>
-        </is>
-      </c>
-      <c r="G118" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cluster de Backup </t>
-        </is>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="inlineStr"/>
-      <c r="B119" t="inlineStr"/>
-      <c r="C119" t="inlineStr"/>
-      <c r="D119" t="inlineStr"/>
-      <c r="E119" t="inlineStr"/>
-      <c r="F119" t="inlineStr">
-        <is>
-          <t>Implantação nova fábrica WEG Servia</t>
-        </is>
-      </c>
-      <c r="G119" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cluster de Backup </t>
-        </is>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="inlineStr"/>
-      <c r="B120" t="inlineStr"/>
-      <c r="C120" t="inlineStr"/>
-      <c r="D120" t="inlineStr"/>
-      <c r="E120" t="inlineStr"/>
-      <c r="F120" t="inlineStr">
-        <is>
-          <t>Implantação nova fábrica WEG Servia</t>
-        </is>
-      </c>
-      <c r="G120" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cluster de Backup </t>
-        </is>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="inlineStr"/>
-      <c r="B121" t="inlineStr"/>
-      <c r="C121" t="inlineStr"/>
-      <c r="D121" t="inlineStr"/>
-      <c r="E121" t="inlineStr"/>
-      <c r="F121" t="inlineStr">
-        <is>
-          <t>Implantação nova fábrica WEG Servia</t>
-        </is>
-      </c>
-      <c r="G121" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cluster de Backup </t>
-        </is>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="inlineStr"/>
-      <c r="B122" t="inlineStr"/>
-      <c r="C122" t="inlineStr"/>
-      <c r="D122" t="inlineStr"/>
-      <c r="E122" t="inlineStr"/>
-      <c r="F122" t="inlineStr">
-        <is>
-          <t>Implantação nova fábrica WEG Servia</t>
-        </is>
-      </c>
-      <c r="G122" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cluster de Backup </t>
-        </is>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="inlineStr"/>
-      <c r="B123" t="inlineStr"/>
-      <c r="C123" t="inlineStr"/>
-      <c r="D123" t="inlineStr"/>
-      <c r="E123" t="inlineStr"/>
-      <c r="F123" t="inlineStr">
-        <is>
-          <t>Implantação nova fábrica WEG Servia</t>
-        </is>
-      </c>
-      <c r="G123" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cluster de Backup </t>
-        </is>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="inlineStr"/>
-      <c r="B124" t="inlineStr"/>
-      <c r="C124" t="inlineStr"/>
-      <c r="D124" t="inlineStr"/>
-      <c r="E124" t="inlineStr"/>
-      <c r="F124" t="inlineStr">
-        <is>
-          <t>Implantação nova fábrica WEG Servia</t>
-        </is>
-      </c>
-      <c r="G124" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cluster de Backup </t>
-        </is>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="inlineStr"/>
-      <c r="B125" t="inlineStr"/>
-      <c r="C125" t="inlineStr"/>
-      <c r="D125" t="inlineStr"/>
-      <c r="E125" t="inlineStr"/>
-      <c r="F125" t="inlineStr">
-        <is>
-          <t>Implantação nova fábrica WEG Servia</t>
-        </is>
-      </c>
-      <c r="G125" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cluster de Backup </t>
-        </is>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="inlineStr"/>
-      <c r="B126" t="inlineStr"/>
-      <c r="C126" t="inlineStr"/>
-      <c r="D126" t="inlineStr"/>
-      <c r="E126" t="inlineStr"/>
-      <c r="F126" t="inlineStr">
-        <is>
-          <t>Implantação nova fábrica WEG Servia</t>
-        </is>
-      </c>
-      <c r="G126" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cluster de Backup </t>
-        </is>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="inlineStr"/>
-      <c r="B127" t="inlineStr"/>
-      <c r="C127" t="inlineStr"/>
-      <c r="D127" t="inlineStr"/>
-      <c r="E127" t="inlineStr"/>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>Backlog</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>lineujunior</t>
+        </is>
+      </c>
+      <c r="E127" t="n">
+        <v>20</v>
+      </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>Implantação nova fábrica WEG Servia</t>
+          <t>1000028582 - Rastreamento Ativos WEG</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cluster de Backup </t>
+          <t>WMX-WTD - Novo Prédio Huehuetoca</t>
         </is>
       </c>
     </row>
     <row r="128">
-      <c r="A128" t="inlineStr"/>
-      <c r="B128" t="inlineStr"/>
-      <c r="C128" t="inlineStr"/>
-      <c r="D128" t="inlineStr"/>
-      <c r="E128" t="inlineStr"/>
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>Arquitetura DDoS</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>Backlog</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>andreig</t>
+        </is>
+      </c>
+      <c r="E128" t="n">
+        <v>140</v>
+      </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>Implantação nova fábrica WEG Servia</t>
+          <t>1000028582 - Rastreamento Ativos WEG</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cluster de Backup </t>
+          <t>WMX-WTD - Novo Prédio Huehuetoca</t>
         </is>
       </c>
     </row>
     <row r="129">
-      <c r="A129" t="inlineStr"/>
-      <c r="B129" t="inlineStr"/>
-      <c r="C129" t="inlineStr"/>
-      <c r="D129" t="inlineStr"/>
-      <c r="E129" t="inlineStr"/>
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>Arquitetura DDoS</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>Backlog</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>danielh</t>
+        </is>
+      </c>
+      <c r="E129" t="n">
+        <v>24</v>
+      </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>Implantação nova fábrica WEG Servia</t>
+          <t>1000028582 - Rastreamento Ativos WEG</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cluster de Backup </t>
+          <t>WMX-WTD - Novo Prédio Huehuetoca</t>
         </is>
       </c>
     </row>
     <row r="130">
-      <c r="A130" t="inlineStr"/>
-      <c r="B130" t="inlineStr"/>
-      <c r="C130" t="inlineStr"/>
-      <c r="D130" t="inlineStr"/>
-      <c r="E130" t="inlineStr"/>
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>Arquitetura DDoS</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>Backlog</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>eduardoat</t>
+        </is>
+      </c>
+      <c r="E130" t="n">
+        <v>60</v>
+      </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>Implantação nova fábrica WEG Servia</t>
+          <t>1000028582 - Rastreamento Ativos WEG</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cluster de Backup </t>
+          <t>WMX-WTD - Novo Prédio Huehuetoca</t>
         </is>
       </c>
     </row>
     <row r="131">
-      <c r="A131" t="inlineStr"/>
-      <c r="B131" t="inlineStr"/>
-      <c r="C131" t="inlineStr"/>
-      <c r="D131" t="inlineStr"/>
-      <c r="E131" t="inlineStr"/>
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>Arquitetura DDoS</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>Backlog</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>franke</t>
+        </is>
+      </c>
+      <c r="E131" t="n">
+        <v>8</v>
+      </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>Implantação nova fábrica WEG Servia</t>
+          <t>1000028582 - Rastreamento Ativos WEG</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cluster de Backup </t>
+          <t>WMX-WTD - Novo Prédio Huehuetoca</t>
         </is>
       </c>
     </row>
     <row r="132">
-      <c r="A132" t="inlineStr"/>
-      <c r="B132" t="inlineStr"/>
-      <c r="C132" t="inlineStr"/>
-      <c r="D132" t="inlineStr"/>
-      <c r="E132" t="inlineStr"/>
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>Arquitetura DDoS</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>Backlog</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>lineujunior</t>
+        </is>
+      </c>
+      <c r="E132" t="n">
+        <v>16</v>
+      </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>Implantação nova fábrica WEG Servia</t>
+          <t>1000028582 - Rastreamento Ativos WEG</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cluster de Backup </t>
+          <t>WMX-WTD - Novo Prédio Huehuetoca</t>
         </is>
       </c>
     </row>
     <row r="133">
-      <c r="A133" t="inlineStr"/>
-      <c r="B133" t="inlineStr"/>
-      <c r="C133" t="inlineStr"/>
-      <c r="D133" t="inlineStr"/>
-      <c r="E133" t="inlineStr"/>
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>GP | Migração SharePoint Onda 3</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>Backlog</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>eduardoat</t>
+        </is>
+      </c>
+      <c r="E133" t="n">
+        <v>80</v>
+      </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>Implantação nova fábrica WEG Servia</t>
+          <t>1000028582 - Rastreamento Ativos WEG</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cluster de Backup </t>
+          <t>WMX-WTD - Novo Prédio Huehuetoca</t>
         </is>
       </c>
     </row>
     <row r="134">
-      <c r="A134" t="inlineStr"/>
-      <c r="B134" t="inlineStr"/>
-      <c r="C134" t="inlineStr"/>
-      <c r="D134" t="inlineStr"/>
-      <c r="E134" t="inlineStr"/>
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>Arquitetura de Cyber Segurança WEG (SASE, ZTNA, Cloud)</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>Backlog</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>andreig</t>
+        </is>
+      </c>
+      <c r="E134" t="n">
+        <v>80</v>
+      </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>Implantação nova fábrica WEG Servia</t>
+          <t>1000028582 - Rastreamento Ativos WEG</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cluster de Backup </t>
+          <t>WMX-WTD - Novo Prédio Huehuetoca</t>
         </is>
       </c>
     </row>
     <row r="135">
-      <c r="A135" t="inlineStr"/>
-      <c r="B135" t="inlineStr"/>
-      <c r="C135" t="inlineStr"/>
-      <c r="D135" t="inlineStr"/>
-      <c r="E135" t="inlineStr"/>
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>Arquitetura de Cyber Segurança WEG (SASE, ZTNA, Cloud)</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>Backlog</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>franke</t>
+        </is>
+      </c>
+      <c r="E135" t="n">
+        <v>4</v>
+      </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>Implantação nova fábrica WEG Servia</t>
+          <t>1000028582 - Rastreamento Ativos WEG</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cluster de Backup </t>
+          <t>WMX-WTD - Novo Prédio Huehuetoca</t>
         </is>
       </c>
     </row>
     <row r="136">
-      <c r="A136" t="inlineStr"/>
-      <c r="B136" t="inlineStr"/>
-      <c r="C136" t="n">
-        <v>2025</v>
-      </c>
-      <c r="D136" t="inlineStr"/>
-      <c r="E136" t="inlineStr"/>
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>Arquitetura de Cyber Segurança WEG (SASE, ZTNA, Cloud)</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>Backlog</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>lineujunior</t>
+        </is>
+      </c>
+      <c r="E136" t="n">
+        <v>24</v>
+      </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>Implantação nova fábrica WEG Servia</t>
+          <t>1000028582 - Rastreamento Ativos WEG</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cluster de Backup </t>
+          <t>WMX-WTD - Novo Prédio Huehuetoca</t>
         </is>
       </c>
     </row>
     <row r="137">
-      <c r="A137" t="inlineStr"/>
-      <c r="B137" t="inlineStr"/>
-      <c r="C137" t="n">
-        <v>2025</v>
-      </c>
-      <c r="D137" t="inlineStr"/>
-      <c r="E137" t="inlineStr"/>
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>Arquitetura S4HANA</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>Backlog</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>andreig</t>
+        </is>
+      </c>
+      <c r="E137" t="n">
+        <v>32</v>
+      </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>Implantação nova fábrica WEG Servia</t>
+          <t>1000028582 - Rastreamento Ativos WEG</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cluster de Backup </t>
+          <t>WMX-WTD - Novo Prédio Huehuetoca</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Estudo, criação e testes de Cluster NFS</t>
+          <t>Infraestrutura IBM POWER - SAP ECC</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -4417,30 +5083,34 @@
           <t>Backlog</t>
         </is>
       </c>
-      <c r="C138" t="n">
-        <v>2025</v>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>claudioa</t>
-        </is>
-      </c>
-      <c r="E138" t="inlineStr"/>
+          <t>eduardoat</t>
+        </is>
+      </c>
+      <c r="E138" t="n">
+        <v>80</v>
+      </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>Estudo, criação e testes de Cluster NFS</t>
+          <t>1000028582 - Rastreamento Ativos WEG</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>Migração Rancher RKE2</t>
+          <t>WMX-WTD - Novo Prédio Huehuetoca</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Migração Rancher RKE2</t>
+          <t>Backup OFFSITE (riscos internos)</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -4448,30 +5118,34 @@
           <t>Backlog</t>
         </is>
       </c>
-      <c r="C139" t="n">
-        <v>2025</v>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>epiccoli</t>
-        </is>
-      </c>
-      <c r="E139" t="inlineStr"/>
+          <t>andreig</t>
+        </is>
+      </c>
+      <c r="E139" t="n">
+        <v>40</v>
+      </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>Estudo, criação e testes de Cluster NFS</t>
+          <t>1000028582 - Rastreamento Ativos WEG</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>Migração Rancher RKE2</t>
+          <t>WMX-WTD - Novo Prédio Huehuetoca</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Rancher Backup</t>
+          <t>DR Site JGS</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -4479,30 +5153,34 @@
           <t>Backlog</t>
         </is>
       </c>
-      <c r="C140" t="n">
-        <v>2025</v>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>epiccoli</t>
-        </is>
-      </c>
-      <c r="E140" t="inlineStr"/>
+          <t>danielh</t>
+        </is>
+      </c>
+      <c r="E140" t="n">
+        <v>120</v>
+      </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>Estudo, criação e testes de Cluster NFS</t>
+          <t>1000028582 - Rastreamento Ativos WEG</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>Migração Rancher RKE2</t>
+          <t>WMX-WTD - Novo Prédio Huehuetoca</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Criar e Revisar Desenhos de arquitetura</t>
+          <t>DR Site JGS</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -4510,30 +5188,34 @@
           <t>Backlog</t>
         </is>
       </c>
-      <c r="C141" t="n">
-        <v>2025</v>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>epiccoli</t>
-        </is>
-      </c>
-      <c r="E141" t="inlineStr"/>
+          <t>eduardoat</t>
+        </is>
+      </c>
+      <c r="E141" t="n">
+        <v>120</v>
+      </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>Estudo, criação e testes de Cluster NFS</t>
+          <t>1000028582 - Rastreamento Ativos WEG</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>Migração Rancher RKE2</t>
+          <t>WMX-WTD - Novo Prédio Huehuetoca</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Arquitetura para solução Aplicação (DSDT &amp; PAU) WTU / WTD (solicitação Jair e Guilherme Trevisani)</t>
+          <t>Infraestrutura Multi (Equinix)</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -4541,30 +5223,34 @@
           <t>Backlog</t>
         </is>
       </c>
-      <c r="C142" t="n">
-        <v>2025</v>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>epiccoli</t>
-        </is>
-      </c>
-      <c r="E142" t="inlineStr"/>
+          <t>andreig</t>
+        </is>
+      </c>
+      <c r="E142" t="n">
+        <v>160</v>
+      </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>Estudo, criação e testes de Cluster NFS</t>
+          <t>1000028582 - Rastreamento Ativos WEG</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>Migração Rancher RKE2</t>
+          <t>WMX-WTD - Novo Prédio Huehuetoca</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Novas ferramentas de observabilidade</t>
+          <t>Infraestrutura Multi (Equinix)</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -4572,30 +5258,34 @@
           <t>Backlog</t>
         </is>
       </c>
-      <c r="C143" t="n">
-        <v>2025</v>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>epiccoli</t>
-        </is>
-      </c>
-      <c r="E143" t="inlineStr"/>
+          <t>danielh</t>
+        </is>
+      </c>
+      <c r="E143" t="n">
+        <v>8</v>
+      </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>Estudo, criação e testes de Cluster NFS</t>
+          <t>1000028582 - Rastreamento Ativos WEG</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>Migração Rancher RKE2</t>
+          <t>WMX-WTD - Novo Prédio Huehuetoca</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Estruturar Cluster Rancher na AWS Multi-propÃ³sito</t>
+          <t>Infraestrutura Multi (Equinix)</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -4603,30 +5293,34 @@
           <t>Backlog</t>
         </is>
       </c>
-      <c r="C144" t="n">
-        <v>2025</v>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>epiccoli</t>
-        </is>
-      </c>
-      <c r="E144" t="inlineStr"/>
+          <t>franke</t>
+        </is>
+      </c>
+      <c r="E144" t="n">
+        <v>8</v>
+      </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>Estudo, criação e testes de Cluster NFS</t>
+          <t>1000028582 - Rastreamento Ativos WEG</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>Migração Rancher RKE2</t>
+          <t>WMX-WTD - Novo Prédio Huehuetoca</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Avaliar Implementação de SLE Micro (sistema operacional imutável e lightweight desenhado para containers e edge)</t>
+          <t>Infraestrutura Multi (Equinix)</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -4634,30 +5328,34 @@
           <t>Backlog</t>
         </is>
       </c>
-      <c r="C145" t="n">
-        <v>2025</v>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>epiccoli</t>
-        </is>
-      </c>
-      <c r="E145" t="inlineStr"/>
+          <t>lineujunior</t>
+        </is>
+      </c>
+      <c r="E145" t="n">
+        <v>48</v>
+      </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>Estudo, criação e testes de Cluster NFS</t>
+          <t>1000028582 - Rastreamento Ativos WEG</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>Migração Rancher RKE2</t>
+          <t>WMX-WTD - Novo Prédio Huehuetoca</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Fomentar a migração WEN WTD WBS para Rancher</t>
+          <t>Implantar nova estrutura de Backup e Arquivamento</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -4665,30 +5363,34 @@
           <t>Backlog</t>
         </is>
       </c>
-      <c r="C146" t="n">
-        <v>2025</v>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>claudioa</t>
-        </is>
-      </c>
-      <c r="E146" t="inlineStr"/>
+          <t>eduardoat</t>
+        </is>
+      </c>
+      <c r="E146" t="n">
+        <v>40</v>
+      </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>Estudo, criação e testes de Cluster NFS</t>
+          <t>1000028582 - Rastreamento Ativos WEG</t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>Migração Rancher RKE2</t>
+          <t>WMX-WTD - Novo Prédio Huehuetoca</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Fomentar a migração WDS/WDC para Rancher</t>
+          <t>Infraestrutura SAP (IBM Power)</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -4696,30 +5398,34 @@
           <t>Backlog</t>
         </is>
       </c>
-      <c r="C147" t="n">
-        <v>2025</v>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>epiccoli</t>
-        </is>
-      </c>
-      <c r="E147" t="inlineStr"/>
+          <t>eduardoat</t>
+        </is>
+      </c>
+      <c r="E147" t="n">
+        <v>16</v>
+      </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>Estudo, criação e testes de Cluster NFS</t>
+          <t>1000028582 - Rastreamento Ativos WEG</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>Migração Rancher RKE2</t>
+          <t>WMX-WTD - Novo Prédio Huehuetoca</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Fomentar a migração WMO para Rancher</t>
+          <t>Migrar a infraestrutura SAP ECC WAE</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -4727,30 +5433,34 @@
           <t>Backlog</t>
         </is>
       </c>
-      <c r="C148" t="n">
-        <v>2025</v>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>epiccoli</t>
-        </is>
-      </c>
-      <c r="E148" t="inlineStr"/>
+          <t>andreig</t>
+        </is>
+      </c>
+      <c r="E148" t="n">
+        <v>32</v>
+      </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>Estudo, criação e testes de Cluster NFS</t>
+          <t>1000028582 - Rastreamento Ativos WEG</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>Migração Rancher RKE2</t>
+          <t>WMX-WTD - Novo Prédio Huehuetoca</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Fomentar a migração SOAP para Rancher (Sistemas Iflow e Ifind / OTM4E)</t>
+          <t>Migrar a infraestrutura SAP ECC WAE</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -4758,30 +5468,34 @@
           <t>Backlog</t>
         </is>
       </c>
-      <c r="C149" t="n">
-        <v>2025</v>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>epiccoli</t>
-        </is>
-      </c>
-      <c r="E149" t="inlineStr"/>
+          <t>eduardoat</t>
+        </is>
+      </c>
+      <c r="E149" t="n">
+        <v>32</v>
+      </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>Estudo, criação e testes de Cluster NFS</t>
+          <t>1000028582 - Rastreamento Ativos WEG</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>Migração Rancher RKE2</t>
+          <t>WMX-WTD - Novo Prédio Huehuetoca</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Reorganizar VMS com Docker por àrea, aumentar densidade e diminuir VMS</t>
+          <t>Migrar a infraestrutura SAP ECC WAE</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -4789,30 +5503,34 @@
           <t>Backlog</t>
         </is>
       </c>
-      <c r="C150" t="n">
-        <v>2025</v>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>epiccoli</t>
-        </is>
-      </c>
-      <c r="E150" t="inlineStr"/>
+          <t>franke</t>
+        </is>
+      </c>
+      <c r="E150" t="n">
+        <v>24</v>
+      </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>Estudo, criação e testes de Cluster NFS</t>
+          <t>1000028582 - Rastreamento Ativos WEG</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>Migração Rancher RKE2</t>
+          <t>WMX-WTD - Novo Prédio Huehuetoca</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Housekeeping Docker Negócio</t>
+          <t>Troca do roteador ASR</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -4820,30 +5538,34 @@
           <t>Backlog</t>
         </is>
       </c>
-      <c r="C151" t="n">
-        <v>2025</v>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>claudioa</t>
-        </is>
-      </c>
-      <c r="E151" t="inlineStr"/>
+          <t>andreig</t>
+        </is>
+      </c>
+      <c r="E151" t="n">
+        <v>240</v>
+      </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>Estudo, criação e testes de Cluster NFS</t>
+          <t>1000028582 - Rastreamento Ativos WEG</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>Migração Rancher RKE2</t>
+          <t>WMX-WTD - Novo Prédio Huehuetoca</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Housekeeping Docker TI</t>
+          <t>Troca do roteador ASR</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -4851,30 +5573,34 @@
           <t>Backlog</t>
         </is>
       </c>
-      <c r="C152" t="n">
-        <v>2025</v>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>epiccoli</t>
-        </is>
-      </c>
-      <c r="E152" t="inlineStr"/>
+          <t>danielh</t>
+        </is>
+      </c>
+      <c r="E152" t="n">
+        <v>80</v>
+      </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>Estudo, criação e testes de Cluster NFS</t>
+          <t>1000028582 - Rastreamento Ativos WEG</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>Migração Rancher RKE2</t>
+          <t>WMX-WTD - Novo Prédio Huehuetoca</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Migrar containeres de banco de dados</t>
+          <t>Troca do roteador ASR</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
@@ -4882,2402 +5608,229 @@
           <t>Backlog</t>
         </is>
       </c>
-      <c r="C153" t="n">
-        <v>2025</v>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>epiccoli</t>
-        </is>
-      </c>
-      <c r="E153" t="inlineStr"/>
+          <t>eduardoat</t>
+        </is>
+      </c>
+      <c r="E153" t="n">
+        <v>100</v>
+      </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>Estudo, criação e testes de Cluster NFS</t>
+          <t>1000028582 - Rastreamento Ativos WEG</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>Migração Rancher RKE2</t>
+          <t>WMX-WTD - Novo Prédio Huehuetoca</t>
         </is>
       </c>
     </row>
     <row r="154">
-      <c r="A154" t="inlineStr"/>
-      <c r="B154" t="inlineStr"/>
-      <c r="C154" t="inlineStr"/>
-      <c r="D154" t="inlineStr"/>
-      <c r="E154" t="inlineStr"/>
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>Troca do roteador ASR</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>Backlog</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>franke</t>
+        </is>
+      </c>
+      <c r="E154" t="n">
+        <v>80</v>
+      </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>Estudo, criação e testes de Cluster NFS</t>
+          <t>1000028582 - Rastreamento Ativos WEG</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>Migração Rancher RKE2</t>
+          <t>WMX-WTD - Novo Prédio Huehuetoca</t>
         </is>
       </c>
     </row>
     <row r="155">
-      <c r="A155" t="inlineStr"/>
-      <c r="B155" t="inlineStr"/>
-      <c r="C155" t="inlineStr"/>
-      <c r="D155" t="inlineStr"/>
-      <c r="E155" t="inlineStr"/>
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>Troca do roteador ASR</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>Backlog</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>lineujunior</t>
+        </is>
+      </c>
+      <c r="E155" t="n">
+        <v>120</v>
+      </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>Estudo, criação e testes de Cluster NFS</t>
+          <t>1000028582 - Rastreamento Ativos WEG</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>Migração Rancher RKE2</t>
+          <t>WMX-WTD - Novo Prédio Huehuetoca</t>
         </is>
       </c>
     </row>
     <row r="156">
-      <c r="A156" t="inlineStr"/>
-      <c r="B156" t="inlineStr"/>
-      <c r="C156" t="inlineStr"/>
-      <c r="D156" t="inlineStr"/>
-      <c r="E156" t="inlineStr"/>
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>WBL - Revisar infraestrutura Wireless para WSFM na Bluffton</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>Backlog</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>danielh</t>
+        </is>
+      </c>
+      <c r="E156" t="n">
+        <v>180</v>
+      </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>Estudo, criação e testes de Cluster NFS</t>
+          <t>1000028582 - Rastreamento Ativos WEG</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>Migração Rancher RKE2</t>
+          <t>WMX-WTD - Novo Prédio Huehuetoca</t>
         </is>
       </c>
     </row>
     <row r="157">
-      <c r="A157" t="inlineStr"/>
-      <c r="B157" t="inlineStr"/>
-      <c r="C157" t="inlineStr"/>
-      <c r="D157" t="inlineStr"/>
-      <c r="E157" t="inlineStr"/>
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>WIS Zest</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>Backlog</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>danielh</t>
+        </is>
+      </c>
+      <c r="E157" t="n">
+        <v>80</v>
+      </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>Estudo, criação e testes de Cluster NFS</t>
+          <t>1000028582 - Rastreamento Ativos WEG</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>Migração Rancher RKE2</t>
+          <t>WMX-WTD - Novo Prédio Huehuetoca</t>
         </is>
       </c>
     </row>
     <row r="158">
-      <c r="A158" t="inlineStr"/>
-      <c r="B158" t="inlineStr"/>
-      <c r="C158" t="inlineStr"/>
-      <c r="D158" t="inlineStr"/>
-      <c r="E158" t="inlineStr"/>
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>WIS Zest</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>Backlog</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>eduardoat</t>
+        </is>
+      </c>
+      <c r="E158" t="n">
+        <v>32</v>
+      </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>Estudo, criação e testes de Cluster NFS</t>
+          <t>1000028582 - Rastreamento Ativos WEG</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>Migração Rancher RKE2</t>
+          <t>WMX-WTD - Novo Prédio Huehuetoca</t>
         </is>
       </c>
     </row>
     <row r="159">
-      <c r="A159" t="inlineStr"/>
-      <c r="B159" t="inlineStr"/>
-      <c r="C159" t="inlineStr"/>
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>Implantação Arquitetura de conectividade SDWAN Global</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>Backlog</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
       <c r="D159" t="inlineStr"/>
       <c r="E159" t="inlineStr"/>
       <c r="F159" t="inlineStr">
         <is>
-          <t>Estudo, criação e testes de Cluster NFS</t>
+          <t>1000028582 - Rastreamento Ativos WEG</t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
-        <is>
-          <t>Migração Rancher RKE2</t>
-        </is>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" t="inlineStr"/>
-      <c r="B160" t="inlineStr"/>
-      <c r="C160" t="inlineStr"/>
-      <c r="D160" t="inlineStr"/>
-      <c r="E160" t="inlineStr"/>
-      <c r="F160" t="inlineStr">
-        <is>
-          <t>Estudo, criação e testes de Cluster NFS</t>
-        </is>
-      </c>
-      <c r="G160" t="inlineStr">
-        <is>
-          <t>Migração Rancher RKE2</t>
-        </is>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" t="inlineStr"/>
-      <c r="B161" t="inlineStr"/>
-      <c r="C161" t="inlineStr"/>
-      <c r="D161" t="inlineStr"/>
-      <c r="E161" t="inlineStr"/>
-      <c r="F161" t="inlineStr">
-        <is>
-          <t>Estudo, criação e testes de Cluster NFS</t>
-        </is>
-      </c>
-      <c r="G161" t="inlineStr">
-        <is>
-          <t>Migração Rancher RKE2</t>
-        </is>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" t="inlineStr"/>
-      <c r="B162" t="inlineStr"/>
-      <c r="C162" t="inlineStr"/>
-      <c r="D162" t="inlineStr"/>
-      <c r="E162" t="inlineStr"/>
-      <c r="F162" t="inlineStr">
-        <is>
-          <t>Estudo, criação e testes de Cluster NFS</t>
-        </is>
-      </c>
-      <c r="G162" t="inlineStr">
-        <is>
-          <t>Migração Rancher RKE2</t>
-        </is>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" t="inlineStr">
-        <is>
-          <t>1000028582 - Rastreamento Ativos WEG</t>
-        </is>
-      </c>
-      <c r="B163" t="inlineStr">
-        <is>
-          <t>Backlog</t>
-        </is>
-      </c>
-      <c r="C163" t="inlineStr">
-        <is>
-          <t>2024-2025</t>
-        </is>
-      </c>
-      <c r="D163" t="inlineStr">
-        <is>
-          <t>danielh</t>
-        </is>
-      </c>
-      <c r="E163" t="n">
-        <v>64</v>
-      </c>
-      <c r="F163" t="inlineStr">
-        <is>
-          <t>1000028582 - Rastreamento Ativos WEG</t>
-        </is>
-      </c>
-      <c r="G163" t="inlineStr">
-        <is>
-          <t>WMX-WTD - Novo Prédio Huehuetoca</t>
-        </is>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" t="inlineStr">
-        <is>
-          <t>WMX-WTD - Novo Prédio Huehuetoca</t>
-        </is>
-      </c>
-      <c r="B164" t="inlineStr">
-        <is>
-          <t>Backlog</t>
-        </is>
-      </c>
-      <c r="C164" t="n">
-        <v>2025</v>
-      </c>
-      <c r="D164" t="inlineStr">
-        <is>
-          <t>franke</t>
-        </is>
-      </c>
-      <c r="E164" t="n">
-        <v>48</v>
-      </c>
-      <c r="F164" t="inlineStr">
-        <is>
-          <t>1000028582 - Rastreamento Ativos WEG</t>
-        </is>
-      </c>
-      <c r="G164" t="inlineStr">
-        <is>
-          <t>WMX-WTD - Novo Prédio Huehuetoca</t>
-        </is>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" t="inlineStr">
-        <is>
-          <t>Revisão Infraestrutura de TI Biblioteca PFII</t>
-        </is>
-      </c>
-      <c r="B165" t="inlineStr">
-        <is>
-          <t>Backlog</t>
-        </is>
-      </c>
-      <c r="C165" t="inlineStr">
-        <is>
-          <t>2024</t>
-        </is>
-      </c>
-      <c r="D165" t="inlineStr">
-        <is>
-          <t>franke</t>
-        </is>
-      </c>
-      <c r="E165" t="n">
-        <v>16</v>
-      </c>
-      <c r="F165" t="inlineStr">
-        <is>
-          <t>1000028582 - Rastreamento Ativos WEG</t>
-        </is>
-      </c>
-      <c r="G165" t="inlineStr">
-        <is>
-          <t>WMX-WTD - Novo Prédio Huehuetoca</t>
-        </is>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" t="inlineStr">
-        <is>
-          <t xml:space="preserve">WTK - WMO - Novo Galpão Turquia </t>
-        </is>
-      </c>
-      <c r="B166" t="inlineStr">
-        <is>
-          <t>Backlog</t>
-        </is>
-      </c>
-      <c r="C166" t="inlineStr">
-        <is>
-          <t>2025</t>
-        </is>
-      </c>
-      <c r="D166" t="inlineStr">
-        <is>
-          <t>franke</t>
-        </is>
-      </c>
-      <c r="E166" t="n">
-        <v>20</v>
-      </c>
-      <c r="F166" t="inlineStr">
-        <is>
-          <t>1000028582 - Rastreamento Ativos WEG</t>
-        </is>
-      </c>
-      <c r="G166" t="inlineStr">
-        <is>
-          <t>WMX-WTD - Novo Prédio Huehuetoca</t>
-        </is>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" t="inlineStr">
-        <is>
-          <t>WPT | Ampliação rede de Santo Tirso</t>
-        </is>
-      </c>
-      <c r="B167" t="inlineStr">
-        <is>
-          <t>Backlog</t>
-        </is>
-      </c>
-      <c r="C167" t="inlineStr">
-        <is>
-          <t>2025</t>
-        </is>
-      </c>
-      <c r="D167" t="inlineStr">
-        <is>
-          <t>franke</t>
-        </is>
-      </c>
-      <c r="E167" t="n">
-        <v>20</v>
-      </c>
-      <c r="F167" t="inlineStr">
-        <is>
-          <t>1000028582 - Rastreamento Ativos WEG</t>
-        </is>
-      </c>
-      <c r="G167" t="inlineStr">
-        <is>
-          <t>WMX-WTD - Novo Prédio Huehuetoca</t>
-        </is>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" t="inlineStr">
-        <is>
-          <t>Implantar WSFM em Hosur India</t>
-        </is>
-      </c>
-      <c r="B168" t="inlineStr">
-        <is>
-          <t>Backlog</t>
-        </is>
-      </c>
-      <c r="C168" t="inlineStr">
-        <is>
-          <t>2025</t>
-        </is>
-      </c>
-      <c r="D168" t="inlineStr">
-        <is>
-          <t>danielh</t>
-        </is>
-      </c>
-      <c r="E168" t="n">
-        <v>45</v>
-      </c>
-      <c r="F168" t="inlineStr">
-        <is>
-          <t>1000028582 - Rastreamento Ativos WEG</t>
-        </is>
-      </c>
-      <c r="G168" t="inlineStr">
-        <is>
-          <t>WMX-WTD - Novo Prédio Huehuetoca</t>
-        </is>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" t="inlineStr">
-        <is>
-          <t>Ampliar rede Wi-Fi Stamping Workshop Rugao</t>
-        </is>
-      </c>
-      <c r="B169" t="inlineStr">
-        <is>
-          <t>Backlog</t>
-        </is>
-      </c>
-      <c r="C169" t="inlineStr">
-        <is>
-          <t>2025</t>
-        </is>
-      </c>
-      <c r="D169" t="inlineStr">
-        <is>
-          <t>danielh</t>
-        </is>
-      </c>
-      <c r="E169" t="n">
-        <v>12</v>
-      </c>
-      <c r="F169" t="inlineStr">
-        <is>
-          <t>1000028582 - Rastreamento Ativos WEG</t>
-        </is>
-      </c>
-      <c r="G169" t="inlineStr">
-        <is>
-          <t>WMX-WTD - Novo Prédio Huehuetoca</t>
-        </is>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" t="inlineStr">
-        <is>
-          <t>WII - Infraestrutura de Rede Security Gate</t>
-        </is>
-      </c>
-      <c r="B170" t="inlineStr">
-        <is>
-          <t>Backlog</t>
-        </is>
-      </c>
-      <c r="C170" t="inlineStr">
-        <is>
-          <t>2025</t>
-        </is>
-      </c>
-      <c r="D170" t="inlineStr">
-        <is>
-          <t>andreig</t>
-        </is>
-      </c>
-      <c r="E170" t="n">
-        <v>12</v>
-      </c>
-      <c r="F170" t="inlineStr">
-        <is>
-          <t>1000028582 - Rastreamento Ativos WEG</t>
-        </is>
-      </c>
-      <c r="G170" t="inlineStr">
-        <is>
-          <t>WMX-WTD - Novo Prédio Huehuetoca</t>
-        </is>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Criação de rede de LAB apartada da IT Labs - João Estevão </t>
-        </is>
-      </c>
-      <c r="B171" t="inlineStr">
-        <is>
-          <t>Backlog</t>
-        </is>
-      </c>
-      <c r="C171" t="inlineStr"/>
-      <c r="D171" t="inlineStr">
-        <is>
-          <t>danielh</t>
-        </is>
-      </c>
-      <c r="E171" t="n">
-        <v>16</v>
-      </c>
-      <c r="F171" t="inlineStr">
-        <is>
-          <t>1000028582 - Rastreamento Ativos WEG</t>
-        </is>
-      </c>
-      <c r="G171" t="inlineStr">
-        <is>
-          <t>WMX-WTD - Novo Prédio Huehuetoca</t>
-        </is>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1000028744 - Renovar contrato de Internet das Unidade </t>
-        </is>
-      </c>
-      <c r="B172" t="inlineStr">
-        <is>
-          <t>Backlog</t>
-        </is>
-      </c>
-      <c r="C172" t="n">
-        <v>2025</v>
-      </c>
-      <c r="D172" t="inlineStr">
-        <is>
-          <t>franke</t>
-        </is>
-      </c>
-      <c r="E172" t="n">
-        <v>182</v>
-      </c>
-      <c r="F172" t="inlineStr">
-        <is>
-          <t>1000028582 - Rastreamento Ativos WEG</t>
-        </is>
-      </c>
-      <c r="G172" t="inlineStr">
-        <is>
-          <t>WMX-WTD - Novo Prédio Huehuetoca</t>
-        </is>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1000028744 - Renovar contrato de Internet das Unidade </t>
-        </is>
-      </c>
-      <c r="B173" t="inlineStr">
-        <is>
-          <t>Backlog</t>
-        </is>
-      </c>
-      <c r="C173" t="n">
-        <v>2025</v>
-      </c>
-      <c r="D173" t="inlineStr">
-        <is>
-          <t>andreig</t>
-        </is>
-      </c>
-      <c r="E173" t="n">
-        <v>16</v>
-      </c>
-      <c r="F173" t="inlineStr">
-        <is>
-          <t>1000028582 - Rastreamento Ativos WEG</t>
-        </is>
-      </c>
-      <c r="G173" t="inlineStr">
-        <is>
-          <t>WMX-WTD - Novo Prédio Huehuetoca</t>
-        </is>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1000028744 - Renovar contrato de Internet das Unidade </t>
-        </is>
-      </c>
-      <c r="B174" t="inlineStr">
-        <is>
-          <t>Backlog</t>
-        </is>
-      </c>
-      <c r="C174" t="n">
-        <v>2025</v>
-      </c>
-      <c r="D174" t="inlineStr">
-        <is>
-          <t>lineujunior</t>
-        </is>
-      </c>
-      <c r="E174" t="n">
-        <v>40</v>
-      </c>
-      <c r="F174" t="inlineStr">
-        <is>
-          <t>1000028582 - Rastreamento Ativos WEG</t>
-        </is>
-      </c>
-      <c r="G174" t="inlineStr">
-        <is>
-          <t>WMX-WTD - Novo Prédio Huehuetoca</t>
-        </is>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" t="inlineStr">
-        <is>
-          <t>Implantação telefonia WEG Cestari - Monte Alto</t>
-        </is>
-      </c>
-      <c r="B175" t="inlineStr">
-        <is>
-          <t>Backlog</t>
-        </is>
-      </c>
-      <c r="C175" t="n">
-        <v>2025</v>
-      </c>
-      <c r="D175" t="inlineStr">
-        <is>
-          <t>lineujunior</t>
-        </is>
-      </c>
-      <c r="E175" t="n">
-        <v>170</v>
-      </c>
-      <c r="F175" t="inlineStr">
-        <is>
-          <t>1000028582 - Rastreamento Ativos WEG</t>
-        </is>
-      </c>
-      <c r="G175" t="inlineStr">
-        <is>
-          <t>WMX-WTD - Novo Prédio Huehuetoca</t>
-        </is>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" t="inlineStr">
-        <is>
-          <t>Implantação telefonia WEG Cestari - Monte Alto</t>
-        </is>
-      </c>
-      <c r="B176" t="inlineStr">
-        <is>
-          <t>Backlog</t>
-        </is>
-      </c>
-      <c r="C176" t="n">
-        <v>2025</v>
-      </c>
-      <c r="D176" t="inlineStr">
-        <is>
-          <t>eduardoat</t>
-        </is>
-      </c>
-      <c r="E176" t="n">
-        <v>45</v>
-      </c>
-      <c r="F176" t="inlineStr">
-        <is>
-          <t>1000028582 - Rastreamento Ativos WEG</t>
-        </is>
-      </c>
-      <c r="G176" t="inlineStr">
-        <is>
-          <t>WMX-WTD - Novo Prédio Huehuetoca</t>
-        </is>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" t="inlineStr">
-        <is>
-          <t>Implantação telefonia WEG Argentina - Cordoba e San Francisco</t>
-        </is>
-      </c>
-      <c r="B177" t="inlineStr">
-        <is>
-          <t>Backlog</t>
-        </is>
-      </c>
-      <c r="C177" t="n">
-        <v>2025</v>
-      </c>
-      <c r="D177" t="inlineStr">
-        <is>
-          <t>lineujunior</t>
-        </is>
-      </c>
-      <c r="E177" t="n">
-        <v>230</v>
-      </c>
-      <c r="F177" t="inlineStr">
-        <is>
-          <t>1000028582 - Rastreamento Ativos WEG</t>
-        </is>
-      </c>
-      <c r="G177" t="inlineStr">
-        <is>
-          <t>WMX-WTD - Novo Prédio Huehuetoca</t>
-        </is>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" t="inlineStr">
-        <is>
-          <t>Implantação telefonia WEG Argentina - Cordoba e San Francisco</t>
-        </is>
-      </c>
-      <c r="B178" t="inlineStr">
-        <is>
-          <t>Backlog</t>
-        </is>
-      </c>
-      <c r="C178" t="n">
-        <v>2025</v>
-      </c>
-      <c r="D178" t="inlineStr">
-        <is>
-          <t>eduardoat</t>
-        </is>
-      </c>
-      <c r="E178" t="n">
-        <v>70</v>
-      </c>
-      <c r="F178" t="inlineStr">
-        <is>
-          <t>1000028582 - Rastreamento Ativos WEG</t>
-        </is>
-      </c>
-      <c r="G178" t="inlineStr">
-        <is>
-          <t>WMX-WTD - Novo Prédio Huehuetoca</t>
-        </is>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" t="inlineStr">
-        <is>
-          <t>Implantação telefonia PPI - SP</t>
-        </is>
-      </c>
-      <c r="B179" t="inlineStr">
-        <is>
-          <t>Backlog</t>
-        </is>
-      </c>
-      <c r="C179" t="n">
-        <v>2025</v>
-      </c>
-      <c r="D179" t="inlineStr">
-        <is>
-          <t>lineujunior</t>
-        </is>
-      </c>
-      <c r="E179" t="n">
-        <v>105</v>
-      </c>
-      <c r="F179" t="inlineStr">
-        <is>
-          <t>1000028582 - Rastreamento Ativos WEG</t>
-        </is>
-      </c>
-      <c r="G179" t="inlineStr">
-        <is>
-          <t>WMX-WTD - Novo Prédio Huehuetoca</t>
-        </is>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" t="inlineStr">
-        <is>
-          <t>Implantação telefonia WEG Africa</t>
-        </is>
-      </c>
-      <c r="B180" t="inlineStr">
-        <is>
-          <t>Backlog</t>
-        </is>
-      </c>
-      <c r="C180" t="n">
-        <v>2025</v>
-      </c>
-      <c r="D180" t="inlineStr">
-        <is>
-          <t>danielh</t>
-        </is>
-      </c>
-      <c r="E180" t="n">
-        <v>275</v>
-      </c>
-      <c r="F180" t="inlineStr">
-        <is>
-          <t>1000028582 - Rastreamento Ativos WEG</t>
-        </is>
-      </c>
-      <c r="G180" t="inlineStr">
-        <is>
-          <t>WMX-WTD - Novo Prédio Huehuetoca</t>
-        </is>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" t="inlineStr">
-        <is>
-          <t>Implantação telefonia WEG São Bernardo - SP</t>
-        </is>
-      </c>
-      <c r="B181" t="inlineStr">
-        <is>
-          <t>Backlog</t>
-        </is>
-      </c>
-      <c r="C181" t="n">
-        <v>2025</v>
-      </c>
-      <c r="D181" t="inlineStr">
-        <is>
-          <t>lineujunior</t>
-        </is>
-      </c>
-      <c r="E181" t="n">
-        <v>24</v>
-      </c>
-      <c r="F181" t="inlineStr">
-        <is>
-          <t>1000028582 - Rastreamento Ativos WEG</t>
-        </is>
-      </c>
-      <c r="G181" t="inlineStr">
-        <is>
-          <t>WMX-WTD - Novo Prédio Huehuetoca</t>
-        </is>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Implantação telefonia Escritório de Sorocaba - Seção Produtos de Inteligência Artificial </t>
-        </is>
-      </c>
-      <c r="B182" t="inlineStr">
-        <is>
-          <t>Backlog</t>
-        </is>
-      </c>
-      <c r="C182" t="inlineStr">
-        <is>
-          <t>2025</t>
-        </is>
-      </c>
-      <c r="D182" t="inlineStr">
-        <is>
-          <t>lineujunior</t>
-        </is>
-      </c>
-      <c r="E182" t="n">
-        <v>50</v>
-      </c>
-      <c r="F182" t="inlineStr">
-        <is>
-          <t>1000028582 - Rastreamento Ativos WEG</t>
-        </is>
-      </c>
-      <c r="G182" t="inlineStr">
-        <is>
-          <t>WMX-WTD - Novo Prédio Huehuetoca</t>
-        </is>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" t="inlineStr">
-        <is>
-          <t>Implantação telefonia Suécia - WSC</t>
-        </is>
-      </c>
-      <c r="B183" t="inlineStr">
-        <is>
-          <t>Backlog</t>
-        </is>
-      </c>
-      <c r="C183" t="inlineStr">
-        <is>
-          <t>2025</t>
-        </is>
-      </c>
-      <c r="D183" t="inlineStr">
-        <is>
-          <t>lineujunior</t>
-        </is>
-      </c>
-      <c r="E183" t="n">
-        <v>86</v>
-      </c>
-      <c r="F183" t="inlineStr">
-        <is>
-          <t>1000028582 - Rastreamento Ativos WEG</t>
-        </is>
-      </c>
-      <c r="G183" t="inlineStr">
-        <is>
-          <t>WMX-WTD - Novo Prédio Huehuetoca</t>
-        </is>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" t="inlineStr">
-        <is>
-          <t>WBL - Revisar infraestrutura Wireless para WSFM na Bluffton</t>
-        </is>
-      </c>
-      <c r="B184" t="inlineStr">
-        <is>
-          <t>Backlog</t>
-        </is>
-      </c>
-      <c r="C184" t="inlineStr">
-        <is>
-          <t>2025</t>
-        </is>
-      </c>
-      <c r="D184" t="inlineStr">
-        <is>
-          <t>danielh</t>
-        </is>
-      </c>
-      <c r="E184" t="n">
-        <v>20</v>
-      </c>
-      <c r="F184" t="inlineStr">
-        <is>
-          <t>1000028582 - Rastreamento Ativos WEG</t>
-        </is>
-      </c>
-      <c r="G184" t="inlineStr">
-        <is>
-          <t>WMX-WTD - Novo Prédio Huehuetoca</t>
-        </is>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" t="inlineStr">
-        <is>
-          <t>Implantação nova fábrica WEG Servia</t>
-        </is>
-      </c>
-      <c r="B185" t="inlineStr">
-        <is>
-          <t>Backlog</t>
-        </is>
-      </c>
-      <c r="C185" t="inlineStr">
-        <is>
-          <t>2025/2026</t>
-        </is>
-      </c>
-      <c r="D185" t="inlineStr">
-        <is>
-          <t>franke</t>
-        </is>
-      </c>
-      <c r="E185" t="n">
-        <v>160</v>
-      </c>
-      <c r="F185" t="inlineStr">
-        <is>
-          <t>1000028582 - Rastreamento Ativos WEG</t>
-        </is>
-      </c>
-      <c r="G185" t="inlineStr">
-        <is>
-          <t>WMX-WTD - Novo Prédio Huehuetoca</t>
-        </is>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" t="inlineStr">
-        <is>
-          <t>Atualização da proposta de integração da Balteau ao WEGNET</t>
-        </is>
-      </c>
-      <c r="B186" t="inlineStr">
-        <is>
-          <t>Backlog</t>
-        </is>
-      </c>
-      <c r="C186" t="inlineStr">
-        <is>
-          <t>2024</t>
-        </is>
-      </c>
-      <c r="D186" t="inlineStr">
-        <is>
-          <t>lineujunior</t>
-        </is>
-      </c>
-      <c r="E186" t="n">
-        <v>20</v>
-      </c>
-      <c r="F186" t="inlineStr">
-        <is>
-          <t>1000028582 - Rastreamento Ativos WEG</t>
-        </is>
-      </c>
-      <c r="G186" t="inlineStr">
-        <is>
-          <t>WMX-WTD - Novo Prédio Huehuetoca</t>
-        </is>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" t="inlineStr">
-        <is>
-          <t>Arquitetura DDoS</t>
-        </is>
-      </c>
-      <c r="B187" t="inlineStr">
-        <is>
-          <t>Backlog</t>
-        </is>
-      </c>
-      <c r="C187" t="inlineStr">
-        <is>
-          <t>2025</t>
-        </is>
-      </c>
-      <c r="D187" t="inlineStr">
-        <is>
-          <t>andreig</t>
-        </is>
-      </c>
-      <c r="E187" t="n">
-        <v>140</v>
-      </c>
-      <c r="F187" t="inlineStr">
-        <is>
-          <t>1000028582 - Rastreamento Ativos WEG</t>
-        </is>
-      </c>
-      <c r="G187" t="inlineStr">
-        <is>
-          <t>WMX-WTD - Novo Prédio Huehuetoca</t>
-        </is>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" t="inlineStr">
-        <is>
-          <t>Arquitetura DDoS</t>
-        </is>
-      </c>
-      <c r="B188" t="inlineStr">
-        <is>
-          <t>Backlog</t>
-        </is>
-      </c>
-      <c r="C188" t="inlineStr">
-        <is>
-          <t>2025</t>
-        </is>
-      </c>
-      <c r="D188" t="inlineStr">
-        <is>
-          <t>danielh</t>
-        </is>
-      </c>
-      <c r="E188" t="n">
-        <v>24</v>
-      </c>
-      <c r="F188" t="inlineStr">
-        <is>
-          <t>1000028582 - Rastreamento Ativos WEG</t>
-        </is>
-      </c>
-      <c r="G188" t="inlineStr">
-        <is>
-          <t>WMX-WTD - Novo Prédio Huehuetoca</t>
-        </is>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" t="inlineStr">
-        <is>
-          <t>Arquitetura DDoS</t>
-        </is>
-      </c>
-      <c r="B189" t="inlineStr">
-        <is>
-          <t>Backlog</t>
-        </is>
-      </c>
-      <c r="C189" t="inlineStr">
-        <is>
-          <t>2025</t>
-        </is>
-      </c>
-      <c r="D189" t="inlineStr">
-        <is>
-          <t>eduardoat</t>
-        </is>
-      </c>
-      <c r="E189" t="n">
-        <v>60</v>
-      </c>
-      <c r="F189" t="inlineStr">
-        <is>
-          <t>1000028582 - Rastreamento Ativos WEG</t>
-        </is>
-      </c>
-      <c r="G189" t="inlineStr">
-        <is>
-          <t>WMX-WTD - Novo Prédio Huehuetoca</t>
-        </is>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" t="inlineStr">
-        <is>
-          <t>Arquitetura DDoS</t>
-        </is>
-      </c>
-      <c r="B190" t="inlineStr">
-        <is>
-          <t>Backlog</t>
-        </is>
-      </c>
-      <c r="C190" t="inlineStr">
-        <is>
-          <t>2025</t>
-        </is>
-      </c>
-      <c r="D190" t="inlineStr">
-        <is>
-          <t>franke</t>
-        </is>
-      </c>
-      <c r="E190" t="n">
-        <v>8</v>
-      </c>
-      <c r="F190" t="inlineStr">
-        <is>
-          <t>1000028582 - Rastreamento Ativos WEG</t>
-        </is>
-      </c>
-      <c r="G190" t="inlineStr">
-        <is>
-          <t>WMX-WTD - Novo Prédio Huehuetoca</t>
-        </is>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" t="inlineStr">
-        <is>
-          <t>Arquitetura DDoS</t>
-        </is>
-      </c>
-      <c r="B191" t="inlineStr">
-        <is>
-          <t>Backlog</t>
-        </is>
-      </c>
-      <c r="C191" t="inlineStr">
-        <is>
-          <t>2025</t>
-        </is>
-      </c>
-      <c r="D191" t="inlineStr">
-        <is>
-          <t>lineujunior</t>
-        </is>
-      </c>
-      <c r="E191" t="n">
-        <v>16</v>
-      </c>
-      <c r="F191" t="inlineStr">
-        <is>
-          <t>1000028582 - Rastreamento Ativos WEG</t>
-        </is>
-      </c>
-      <c r="G191" t="inlineStr">
-        <is>
-          <t>WMX-WTD - Novo Prédio Huehuetoca</t>
-        </is>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" t="inlineStr">
-        <is>
-          <t>GP | Migração SharePoint Onda 3</t>
-        </is>
-      </c>
-      <c r="B192" t="inlineStr">
-        <is>
-          <t>Backlog</t>
-        </is>
-      </c>
-      <c r="C192" t="inlineStr">
-        <is>
-          <t>2025</t>
-        </is>
-      </c>
-      <c r="D192" t="inlineStr">
-        <is>
-          <t>eduardoat</t>
-        </is>
-      </c>
-      <c r="E192" t="n">
-        <v>80</v>
-      </c>
-      <c r="F192" t="inlineStr">
-        <is>
-          <t>1000028582 - Rastreamento Ativos WEG</t>
-        </is>
-      </c>
-      <c r="G192" t="inlineStr">
-        <is>
-          <t>WMX-WTD - Novo Prédio Huehuetoca</t>
-        </is>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" t="inlineStr">
-        <is>
-          <t>Arquitetura de Cyber Segurança WEG (SASE, ZTNA, Cloud)</t>
-        </is>
-      </c>
-      <c r="B193" t="inlineStr">
-        <is>
-          <t>Backlog</t>
-        </is>
-      </c>
-      <c r="C193" t="inlineStr">
-        <is>
-          <t>2025</t>
-        </is>
-      </c>
-      <c r="D193" t="inlineStr">
-        <is>
-          <t>andreig</t>
-        </is>
-      </c>
-      <c r="E193" t="n">
-        <v>80</v>
-      </c>
-      <c r="F193" t="inlineStr">
-        <is>
-          <t>1000028582 - Rastreamento Ativos WEG</t>
-        </is>
-      </c>
-      <c r="G193" t="inlineStr">
-        <is>
-          <t>WMX-WTD - Novo Prédio Huehuetoca</t>
-        </is>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" t="inlineStr">
-        <is>
-          <t>Arquitetura de Cyber Segurança WEG (SASE, ZTNA, Cloud)</t>
-        </is>
-      </c>
-      <c r="B194" t="inlineStr">
-        <is>
-          <t>Backlog</t>
-        </is>
-      </c>
-      <c r="C194" t="inlineStr">
-        <is>
-          <t>2025</t>
-        </is>
-      </c>
-      <c r="D194" t="inlineStr">
-        <is>
-          <t>franke</t>
-        </is>
-      </c>
-      <c r="E194" t="n">
-        <v>4</v>
-      </c>
-      <c r="F194" t="inlineStr">
-        <is>
-          <t>1000028582 - Rastreamento Ativos WEG</t>
-        </is>
-      </c>
-      <c r="G194" t="inlineStr">
-        <is>
-          <t>WMX-WTD - Novo Prédio Huehuetoca</t>
-        </is>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" t="inlineStr">
-        <is>
-          <t>Arquitetura de Cyber Segurança WEG (SASE, ZTNA, Cloud)</t>
-        </is>
-      </c>
-      <c r="B195" t="inlineStr">
-        <is>
-          <t>Backlog</t>
-        </is>
-      </c>
-      <c r="C195" t="inlineStr">
-        <is>
-          <t>2025</t>
-        </is>
-      </c>
-      <c r="D195" t="inlineStr">
-        <is>
-          <t>lineujunior</t>
-        </is>
-      </c>
-      <c r="E195" t="n">
-        <v>24</v>
-      </c>
-      <c r="F195" t="inlineStr">
-        <is>
-          <t>1000028582 - Rastreamento Ativos WEG</t>
-        </is>
-      </c>
-      <c r="G195" t="inlineStr">
-        <is>
-          <t>WMX-WTD - Novo Prédio Huehuetoca</t>
-        </is>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" t="inlineStr">
-        <is>
-          <t>Arquitetura S4HANA</t>
-        </is>
-      </c>
-      <c r="B196" t="inlineStr">
-        <is>
-          <t>Backlog</t>
-        </is>
-      </c>
-      <c r="C196" t="inlineStr">
-        <is>
-          <t>2025</t>
-        </is>
-      </c>
-      <c r="D196" t="inlineStr">
-        <is>
-          <t>andreig</t>
-        </is>
-      </c>
-      <c r="E196" t="n">
-        <v>32</v>
-      </c>
-      <c r="F196" t="inlineStr">
-        <is>
-          <t>1000028582 - Rastreamento Ativos WEG</t>
-        </is>
-      </c>
-      <c r="G196" t="inlineStr">
-        <is>
-          <t>WMX-WTD - Novo Prédio Huehuetoca</t>
-        </is>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" t="inlineStr">
-        <is>
-          <t>Infraestrutura IBM POWER - SAP ECC</t>
-        </is>
-      </c>
-      <c r="B197" t="inlineStr">
-        <is>
-          <t>Backlog</t>
-        </is>
-      </c>
-      <c r="C197" t="inlineStr">
-        <is>
-          <t>2025</t>
-        </is>
-      </c>
-      <c r="D197" t="inlineStr">
-        <is>
-          <t>eduardoat</t>
-        </is>
-      </c>
-      <c r="E197" t="n">
-        <v>80</v>
-      </c>
-      <c r="F197" t="inlineStr">
-        <is>
-          <t>1000028582 - Rastreamento Ativos WEG</t>
-        </is>
-      </c>
-      <c r="G197" t="inlineStr">
-        <is>
-          <t>WMX-WTD - Novo Prédio Huehuetoca</t>
-        </is>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" t="inlineStr">
-        <is>
-          <t>Backup OFFSITE (riscos internos)</t>
-        </is>
-      </c>
-      <c r="B198" t="inlineStr">
-        <is>
-          <t>Backlog</t>
-        </is>
-      </c>
-      <c r="C198" t="inlineStr">
-        <is>
-          <t>2025</t>
-        </is>
-      </c>
-      <c r="D198" t="inlineStr">
-        <is>
-          <t>andreig</t>
-        </is>
-      </c>
-      <c r="E198" t="n">
-        <v>40</v>
-      </c>
-      <c r="F198" t="inlineStr">
-        <is>
-          <t>1000028582 - Rastreamento Ativos WEG</t>
-        </is>
-      </c>
-      <c r="G198" t="inlineStr">
-        <is>
-          <t>WMX-WTD - Novo Prédio Huehuetoca</t>
-        </is>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" t="inlineStr">
-        <is>
-          <t>DR Site JGS</t>
-        </is>
-      </c>
-      <c r="B199" t="inlineStr">
-        <is>
-          <t>Backlog</t>
-        </is>
-      </c>
-      <c r="C199" t="inlineStr">
-        <is>
-          <t>2025</t>
-        </is>
-      </c>
-      <c r="D199" t="inlineStr">
-        <is>
-          <t>danielh</t>
-        </is>
-      </c>
-      <c r="E199" t="n">
-        <v>120</v>
-      </c>
-      <c r="F199" t="inlineStr">
-        <is>
-          <t>1000028582 - Rastreamento Ativos WEG</t>
-        </is>
-      </c>
-      <c r="G199" t="inlineStr">
-        <is>
-          <t>WMX-WTD - Novo Prédio Huehuetoca</t>
-        </is>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" t="inlineStr">
-        <is>
-          <t>DR Site JGS</t>
-        </is>
-      </c>
-      <c r="B200" t="inlineStr">
-        <is>
-          <t>Backlog</t>
-        </is>
-      </c>
-      <c r="C200" t="inlineStr">
-        <is>
-          <t>2025</t>
-        </is>
-      </c>
-      <c r="D200" t="inlineStr">
-        <is>
-          <t>eduardoat</t>
-        </is>
-      </c>
-      <c r="E200" t="n">
-        <v>120</v>
-      </c>
-      <c r="F200" t="inlineStr">
-        <is>
-          <t>1000028582 - Rastreamento Ativos WEG</t>
-        </is>
-      </c>
-      <c r="G200" t="inlineStr">
-        <is>
-          <t>WMX-WTD - Novo Prédio Huehuetoca</t>
-        </is>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" t="inlineStr">
-        <is>
-          <t>Infraestrutura Multi (Equinix)</t>
-        </is>
-      </c>
-      <c r="B201" t="inlineStr">
-        <is>
-          <t>Backlog</t>
-        </is>
-      </c>
-      <c r="C201" t="inlineStr">
-        <is>
-          <t>2025</t>
-        </is>
-      </c>
-      <c r="D201" t="inlineStr">
-        <is>
-          <t>andreig</t>
-        </is>
-      </c>
-      <c r="E201" t="n">
-        <v>160</v>
-      </c>
-      <c r="F201" t="inlineStr">
-        <is>
-          <t>1000028582 - Rastreamento Ativos WEG</t>
-        </is>
-      </c>
-      <c r="G201" t="inlineStr">
-        <is>
-          <t>WMX-WTD - Novo Prédio Huehuetoca</t>
-        </is>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" t="inlineStr">
-        <is>
-          <t>Infraestrutura Multi (Equinix)</t>
-        </is>
-      </c>
-      <c r="B202" t="inlineStr">
-        <is>
-          <t>Backlog</t>
-        </is>
-      </c>
-      <c r="C202" t="inlineStr">
-        <is>
-          <t>2025</t>
-        </is>
-      </c>
-      <c r="D202" t="inlineStr">
-        <is>
-          <t>danielh</t>
-        </is>
-      </c>
-      <c r="E202" t="n">
-        <v>8</v>
-      </c>
-      <c r="F202" t="inlineStr">
-        <is>
-          <t>1000028582 - Rastreamento Ativos WEG</t>
-        </is>
-      </c>
-      <c r="G202" t="inlineStr">
-        <is>
-          <t>WMX-WTD - Novo Prédio Huehuetoca</t>
-        </is>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" t="inlineStr">
-        <is>
-          <t>Infraestrutura Multi (Equinix)</t>
-        </is>
-      </c>
-      <c r="B203" t="inlineStr">
-        <is>
-          <t>Backlog</t>
-        </is>
-      </c>
-      <c r="C203" t="inlineStr">
-        <is>
-          <t>2025</t>
-        </is>
-      </c>
-      <c r="D203" t="inlineStr">
-        <is>
-          <t>franke</t>
-        </is>
-      </c>
-      <c r="E203" t="n">
-        <v>8</v>
-      </c>
-      <c r="F203" t="inlineStr">
-        <is>
-          <t>1000028582 - Rastreamento Ativos WEG</t>
-        </is>
-      </c>
-      <c r="G203" t="inlineStr">
-        <is>
-          <t>WMX-WTD - Novo Prédio Huehuetoca</t>
-        </is>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" t="inlineStr">
-        <is>
-          <t>Infraestrutura Multi (Equinix)</t>
-        </is>
-      </c>
-      <c r="B204" t="inlineStr">
-        <is>
-          <t>Backlog</t>
-        </is>
-      </c>
-      <c r="C204" t="inlineStr">
-        <is>
-          <t>2025</t>
-        </is>
-      </c>
-      <c r="D204" t="inlineStr">
-        <is>
-          <t>lineujunior</t>
-        </is>
-      </c>
-      <c r="E204" t="n">
-        <v>48</v>
-      </c>
-      <c r="F204" t="inlineStr">
-        <is>
-          <t>1000028582 - Rastreamento Ativos WEG</t>
-        </is>
-      </c>
-      <c r="G204" t="inlineStr">
-        <is>
-          <t>WMX-WTD - Novo Prédio Huehuetoca</t>
-        </is>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" t="inlineStr">
-        <is>
-          <t>Implantar nova estrutura de Backup e Arquivamento</t>
-        </is>
-      </c>
-      <c r="B205" t="inlineStr">
-        <is>
-          <t>Backlog</t>
-        </is>
-      </c>
-      <c r="C205" t="inlineStr">
-        <is>
-          <t>2025</t>
-        </is>
-      </c>
-      <c r="D205" t="inlineStr">
-        <is>
-          <t>eduardoat</t>
-        </is>
-      </c>
-      <c r="E205" t="n">
-        <v>40</v>
-      </c>
-      <c r="F205" t="inlineStr">
-        <is>
-          <t>1000028582 - Rastreamento Ativos WEG</t>
-        </is>
-      </c>
-      <c r="G205" t="inlineStr">
-        <is>
-          <t>WMX-WTD - Novo Prédio Huehuetoca</t>
-        </is>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" t="inlineStr">
-        <is>
-          <t>Infraestrutura SAP (IBM Power)</t>
-        </is>
-      </c>
-      <c r="B206" t="inlineStr">
-        <is>
-          <t>Backlog</t>
-        </is>
-      </c>
-      <c r="C206" t="inlineStr">
-        <is>
-          <t>2025</t>
-        </is>
-      </c>
-      <c r="D206" t="inlineStr">
-        <is>
-          <t>eduardoat</t>
-        </is>
-      </c>
-      <c r="E206" t="n">
-        <v>16</v>
-      </c>
-      <c r="F206" t="inlineStr">
-        <is>
-          <t>1000028582 - Rastreamento Ativos WEG</t>
-        </is>
-      </c>
-      <c r="G206" t="inlineStr">
-        <is>
-          <t>WMX-WTD - Novo Prédio Huehuetoca</t>
-        </is>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" t="inlineStr">
-        <is>
-          <t>Migrar a infraestrutura SAP ECC WAE</t>
-        </is>
-      </c>
-      <c r="B207" t="inlineStr">
-        <is>
-          <t>Backlog</t>
-        </is>
-      </c>
-      <c r="C207" t="inlineStr">
-        <is>
-          <t>2025</t>
-        </is>
-      </c>
-      <c r="D207" t="inlineStr">
-        <is>
-          <t>andreig</t>
-        </is>
-      </c>
-      <c r="E207" t="n">
-        <v>32</v>
-      </c>
-      <c r="F207" t="inlineStr">
-        <is>
-          <t>1000028582 - Rastreamento Ativos WEG</t>
-        </is>
-      </c>
-      <c r="G207" t="inlineStr">
-        <is>
-          <t>WMX-WTD - Novo Prédio Huehuetoca</t>
-        </is>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" t="inlineStr">
-        <is>
-          <t>Migrar a infraestrutura SAP ECC WAE</t>
-        </is>
-      </c>
-      <c r="B208" t="inlineStr">
-        <is>
-          <t>Backlog</t>
-        </is>
-      </c>
-      <c r="C208" t="inlineStr">
-        <is>
-          <t>2025</t>
-        </is>
-      </c>
-      <c r="D208" t="inlineStr">
-        <is>
-          <t>eduardoat</t>
-        </is>
-      </c>
-      <c r="E208" t="n">
-        <v>32</v>
-      </c>
-      <c r="F208" t="inlineStr">
-        <is>
-          <t>1000028582 - Rastreamento Ativos WEG</t>
-        </is>
-      </c>
-      <c r="G208" t="inlineStr">
-        <is>
-          <t>WMX-WTD - Novo Prédio Huehuetoca</t>
-        </is>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" t="inlineStr">
-        <is>
-          <t>Migrar a infraestrutura SAP ECC WAE</t>
-        </is>
-      </c>
-      <c r="B209" t="inlineStr">
-        <is>
-          <t>Backlog</t>
-        </is>
-      </c>
-      <c r="C209" t="inlineStr">
-        <is>
-          <t>2025</t>
-        </is>
-      </c>
-      <c r="D209" t="inlineStr">
-        <is>
-          <t>franke</t>
-        </is>
-      </c>
-      <c r="E209" t="n">
-        <v>24</v>
-      </c>
-      <c r="F209" t="inlineStr">
-        <is>
-          <t>1000028582 - Rastreamento Ativos WEG</t>
-        </is>
-      </c>
-      <c r="G209" t="inlineStr">
-        <is>
-          <t>WMX-WTD - Novo Prédio Huehuetoca</t>
-        </is>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" t="inlineStr">
-        <is>
-          <t>Troca do roteador ASR</t>
-        </is>
-      </c>
-      <c r="B210" t="inlineStr">
-        <is>
-          <t>Backlog</t>
-        </is>
-      </c>
-      <c r="C210" t="inlineStr">
-        <is>
-          <t>2025</t>
-        </is>
-      </c>
-      <c r="D210" t="inlineStr">
-        <is>
-          <t>andreig</t>
-        </is>
-      </c>
-      <c r="E210" t="n">
-        <v>240</v>
-      </c>
-      <c r="F210" t="inlineStr">
-        <is>
-          <t>1000028582 - Rastreamento Ativos WEG</t>
-        </is>
-      </c>
-      <c r="G210" t="inlineStr">
-        <is>
-          <t>WMX-WTD - Novo Prédio Huehuetoca</t>
-        </is>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" t="inlineStr">
-        <is>
-          <t>Troca do roteador ASR</t>
-        </is>
-      </c>
-      <c r="B211" t="inlineStr">
-        <is>
-          <t>Backlog</t>
-        </is>
-      </c>
-      <c r="C211" t="inlineStr">
-        <is>
-          <t>2025</t>
-        </is>
-      </c>
-      <c r="D211" t="inlineStr">
-        <is>
-          <t>danielh</t>
-        </is>
-      </c>
-      <c r="E211" t="n">
-        <v>80</v>
-      </c>
-      <c r="F211" t="inlineStr">
-        <is>
-          <t>1000028582 - Rastreamento Ativos WEG</t>
-        </is>
-      </c>
-      <c r="G211" t="inlineStr">
-        <is>
-          <t>WMX-WTD - Novo Prédio Huehuetoca</t>
-        </is>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" t="inlineStr">
-        <is>
-          <t>Troca do roteador ASR</t>
-        </is>
-      </c>
-      <c r="B212" t="inlineStr">
-        <is>
-          <t>Backlog</t>
-        </is>
-      </c>
-      <c r="C212" t="inlineStr">
-        <is>
-          <t>2025</t>
-        </is>
-      </c>
-      <c r="D212" t="inlineStr">
-        <is>
-          <t>eduardoat</t>
-        </is>
-      </c>
-      <c r="E212" t="n">
-        <v>100</v>
-      </c>
-      <c r="F212" t="inlineStr">
-        <is>
-          <t>1000028582 - Rastreamento Ativos WEG</t>
-        </is>
-      </c>
-      <c r="G212" t="inlineStr">
-        <is>
-          <t>WMX-WTD - Novo Prédio Huehuetoca</t>
-        </is>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" t="inlineStr">
-        <is>
-          <t>Troca do roteador ASR</t>
-        </is>
-      </c>
-      <c r="B213" t="inlineStr">
-        <is>
-          <t>Backlog</t>
-        </is>
-      </c>
-      <c r="C213" t="inlineStr">
-        <is>
-          <t>2025</t>
-        </is>
-      </c>
-      <c r="D213" t="inlineStr">
-        <is>
-          <t>franke</t>
-        </is>
-      </c>
-      <c r="E213" t="n">
-        <v>80</v>
-      </c>
-      <c r="F213" t="inlineStr">
-        <is>
-          <t>1000028582 - Rastreamento Ativos WEG</t>
-        </is>
-      </c>
-      <c r="G213" t="inlineStr">
-        <is>
-          <t>WMX-WTD - Novo Prédio Huehuetoca</t>
-        </is>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" t="inlineStr">
-        <is>
-          <t>Troca do roteador ASR</t>
-        </is>
-      </c>
-      <c r="B214" t="inlineStr">
-        <is>
-          <t>Backlog</t>
-        </is>
-      </c>
-      <c r="C214" t="inlineStr">
-        <is>
-          <t>2025</t>
-        </is>
-      </c>
-      <c r="D214" t="inlineStr">
-        <is>
-          <t>lineujunior</t>
-        </is>
-      </c>
-      <c r="E214" t="n">
-        <v>120</v>
-      </c>
-      <c r="F214" t="inlineStr">
-        <is>
-          <t>1000028582 - Rastreamento Ativos WEG</t>
-        </is>
-      </c>
-      <c r="G214" t="inlineStr">
-        <is>
-          <t>WMX-WTD - Novo Prédio Huehuetoca</t>
-        </is>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" t="inlineStr">
-        <is>
-          <t>WBL - Revisar infraestrutura Wireless para WSFM na Bluffton</t>
-        </is>
-      </c>
-      <c r="B215" t="inlineStr">
-        <is>
-          <t>Backlog</t>
-        </is>
-      </c>
-      <c r="C215" t="inlineStr">
-        <is>
-          <t>2025</t>
-        </is>
-      </c>
-      <c r="D215" t="inlineStr">
-        <is>
-          <t>danielh</t>
-        </is>
-      </c>
-      <c r="E215" t="n">
-        <v>180</v>
-      </c>
-      <c r="F215" t="inlineStr">
-        <is>
-          <t>1000028582 - Rastreamento Ativos WEG</t>
-        </is>
-      </c>
-      <c r="G215" t="inlineStr">
-        <is>
-          <t>WMX-WTD - Novo Prédio Huehuetoca</t>
-        </is>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" t="inlineStr">
-        <is>
-          <t>WIS Zest</t>
-        </is>
-      </c>
-      <c r="B216" t="inlineStr">
-        <is>
-          <t>Backlog</t>
-        </is>
-      </c>
-      <c r="C216" t="inlineStr">
-        <is>
-          <t>2025</t>
-        </is>
-      </c>
-      <c r="D216" t="inlineStr">
-        <is>
-          <t>danielh</t>
-        </is>
-      </c>
-      <c r="E216" t="n">
-        <v>80</v>
-      </c>
-      <c r="F216" t="inlineStr">
-        <is>
-          <t>1000028582 - Rastreamento Ativos WEG</t>
-        </is>
-      </c>
-      <c r="G216" t="inlineStr">
-        <is>
-          <t>WMX-WTD - Novo Prédio Huehuetoca</t>
-        </is>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" t="inlineStr">
-        <is>
-          <t>WIS Zest</t>
-        </is>
-      </c>
-      <c r="B217" t="inlineStr">
-        <is>
-          <t>Backlog</t>
-        </is>
-      </c>
-      <c r="C217" t="inlineStr">
-        <is>
-          <t>2025</t>
-        </is>
-      </c>
-      <c r="D217" t="inlineStr">
-        <is>
-          <t>eduardoat</t>
-        </is>
-      </c>
-      <c r="E217" t="n">
-        <v>32</v>
-      </c>
-      <c r="F217" t="inlineStr">
-        <is>
-          <t>1000028582 - Rastreamento Ativos WEG</t>
-        </is>
-      </c>
-      <c r="G217" t="inlineStr">
-        <is>
-          <t>WMX-WTD - Novo Prédio Huehuetoca</t>
-        </is>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" t="inlineStr">
-        <is>
-          <t>Implantação Arquitetura de conectividade SDWAN Global</t>
-        </is>
-      </c>
-      <c r="B218" t="inlineStr">
-        <is>
-          <t>Backlog</t>
-        </is>
-      </c>
-      <c r="C218" t="inlineStr">
-        <is>
-          <t>2025</t>
-        </is>
-      </c>
-      <c r="D218" t="inlineStr"/>
-      <c r="E218" t="inlineStr"/>
-      <c r="F218" t="inlineStr">
-        <is>
-          <t>1000028582 - Rastreamento Ativos WEG</t>
-        </is>
-      </c>
-      <c r="G218" t="inlineStr">
-        <is>
-          <t>WMX-WTD - Novo Prédio Huehuetoca</t>
-        </is>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" t="inlineStr"/>
-      <c r="B219" t="inlineStr">
-        <is>
-          <t>Backlog</t>
-        </is>
-      </c>
-      <c r="C219" t="inlineStr">
-        <is>
-          <t>2025</t>
-        </is>
-      </c>
-      <c r="D219" t="inlineStr"/>
-      <c r="E219" t="inlineStr"/>
-      <c r="F219" t="inlineStr">
-        <is>
-          <t>1000028582 - Rastreamento Ativos WEG</t>
-        </is>
-      </c>
-      <c r="G219" t="inlineStr">
-        <is>
-          <t>WMX-WTD - Novo Prédio Huehuetoca</t>
-        </is>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" t="inlineStr"/>
-      <c r="B220" t="inlineStr">
-        <is>
-          <t>Backlog</t>
-        </is>
-      </c>
-      <c r="C220" t="inlineStr">
-        <is>
-          <t>2025</t>
-        </is>
-      </c>
-      <c r="D220" t="inlineStr"/>
-      <c r="E220" t="inlineStr"/>
-      <c r="F220" t="inlineStr">
-        <is>
-          <t>1000028582 - Rastreamento Ativos WEG</t>
-        </is>
-      </c>
-      <c r="G220" t="inlineStr">
-        <is>
-          <t>WMX-WTD - Novo Prédio Huehuetoca</t>
-        </is>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" t="inlineStr"/>
-      <c r="B221" t="inlineStr">
-        <is>
-          <t>Backlog</t>
-        </is>
-      </c>
-      <c r="C221" t="inlineStr">
-        <is>
-          <t>2025</t>
-        </is>
-      </c>
-      <c r="D221" t="inlineStr"/>
-      <c r="E221" t="inlineStr"/>
-      <c r="F221" t="inlineStr">
-        <is>
-          <t>1000028582 - Rastreamento Ativos WEG</t>
-        </is>
-      </c>
-      <c r="G221" t="inlineStr">
-        <is>
-          <t>WMX-WTD - Novo Prédio Huehuetoca</t>
-        </is>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" t="inlineStr"/>
-      <c r="B222" t="inlineStr">
-        <is>
-          <t>Backlog</t>
-        </is>
-      </c>
-      <c r="C222" t="inlineStr">
-        <is>
-          <t>2025</t>
-        </is>
-      </c>
-      <c r="D222" t="inlineStr"/>
-      <c r="E222" t="inlineStr"/>
-      <c r="F222" t="inlineStr">
-        <is>
-          <t>1000028582 - Rastreamento Ativos WEG</t>
-        </is>
-      </c>
-      <c r="G222" t="inlineStr">
-        <is>
-          <t>WMX-WTD - Novo Prédio Huehuetoca</t>
-        </is>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" t="inlineStr"/>
-      <c r="B223" t="inlineStr">
-        <is>
-          <t>Backlog</t>
-        </is>
-      </c>
-      <c r="C223" t="inlineStr">
-        <is>
-          <t>2025</t>
-        </is>
-      </c>
-      <c r="D223" t="inlineStr"/>
-      <c r="E223" t="inlineStr"/>
-      <c r="F223" t="inlineStr">
-        <is>
-          <t>1000028582 - Rastreamento Ativos WEG</t>
-        </is>
-      </c>
-      <c r="G223" t="inlineStr">
-        <is>
-          <t>WMX-WTD - Novo Prédio Huehuetoca</t>
-        </is>
-      </c>
-    </row>
-    <row r="224">
-      <c r="A224" t="inlineStr"/>
-      <c r="B224" t="inlineStr">
-        <is>
-          <t>Backlog</t>
-        </is>
-      </c>
-      <c r="C224" t="inlineStr">
-        <is>
-          <t>2025</t>
-        </is>
-      </c>
-      <c r="D224" t="inlineStr"/>
-      <c r="E224" t="inlineStr"/>
-      <c r="F224" t="inlineStr">
-        <is>
-          <t>1000028582 - Rastreamento Ativos WEG</t>
-        </is>
-      </c>
-      <c r="G224" t="inlineStr">
-        <is>
-          <t>WMX-WTD - Novo Prédio Huehuetoca</t>
-        </is>
-      </c>
-    </row>
-    <row r="225">
-      <c r="A225" t="inlineStr"/>
-      <c r="B225" t="inlineStr">
-        <is>
-          <t>Backlog</t>
-        </is>
-      </c>
-      <c r="C225" t="inlineStr">
-        <is>
-          <t>2025</t>
-        </is>
-      </c>
-      <c r="D225" t="inlineStr"/>
-      <c r="E225" t="inlineStr"/>
-      <c r="F225" t="inlineStr">
-        <is>
-          <t>1000028582 - Rastreamento Ativos WEG</t>
-        </is>
-      </c>
-      <c r="G225" t="inlineStr">
-        <is>
-          <t>WMX-WTD - Novo Prédio Huehuetoca</t>
-        </is>
-      </c>
-    </row>
-    <row r="226">
-      <c r="A226" t="inlineStr"/>
-      <c r="B226" t="inlineStr">
-        <is>
-          <t>Backlog</t>
-        </is>
-      </c>
-      <c r="C226" t="inlineStr">
-        <is>
-          <t>2025</t>
-        </is>
-      </c>
-      <c r="D226" t="inlineStr"/>
-      <c r="E226" t="inlineStr"/>
-      <c r="F226" t="inlineStr">
-        <is>
-          <t>1000028582 - Rastreamento Ativos WEG</t>
-        </is>
-      </c>
-      <c r="G226" t="inlineStr">
-        <is>
-          <t>WMX-WTD - Novo Prédio Huehuetoca</t>
-        </is>
-      </c>
-    </row>
-    <row r="227">
-      <c r="A227" t="inlineStr"/>
-      <c r="B227" t="inlineStr">
-        <is>
-          <t>Backlog</t>
-        </is>
-      </c>
-      <c r="C227" t="inlineStr">
-        <is>
-          <t>2025</t>
-        </is>
-      </c>
-      <c r="D227" t="inlineStr"/>
-      <c r="E227" t="inlineStr"/>
-      <c r="F227" t="inlineStr">
-        <is>
-          <t>1000028582 - Rastreamento Ativos WEG</t>
-        </is>
-      </c>
-      <c r="G227" t="inlineStr">
-        <is>
-          <t>WMX-WTD - Novo Prédio Huehuetoca</t>
-        </is>
-      </c>
-    </row>
-    <row r="228">
-      <c r="A228" t="inlineStr"/>
-      <c r="B228" t="inlineStr">
-        <is>
-          <t>Backlog</t>
-        </is>
-      </c>
-      <c r="C228" t="inlineStr">
-        <is>
-          <t>2025</t>
-        </is>
-      </c>
-      <c r="D228" t="inlineStr"/>
-      <c r="E228" t="inlineStr"/>
-      <c r="F228" t="inlineStr">
-        <is>
-          <t>1000028582 - Rastreamento Ativos WEG</t>
-        </is>
-      </c>
-      <c r="G228" t="inlineStr">
-        <is>
-          <t>WMX-WTD - Novo Prédio Huehuetoca</t>
-        </is>
-      </c>
-    </row>
-    <row r="229">
-      <c r="A229" t="inlineStr"/>
-      <c r="B229" t="inlineStr">
-        <is>
-          <t>Backlog</t>
-        </is>
-      </c>
-      <c r="C229" t="inlineStr">
-        <is>
-          <t>2025</t>
-        </is>
-      </c>
-      <c r="D229" t="inlineStr"/>
-      <c r="E229" t="inlineStr"/>
-      <c r="F229" t="inlineStr">
-        <is>
-          <t>1000028582 - Rastreamento Ativos WEG</t>
-        </is>
-      </c>
-      <c r="G229" t="inlineStr">
-        <is>
-          <t>WMX-WTD - Novo Prédio Huehuetoca</t>
-        </is>
-      </c>
-    </row>
-    <row r="230">
-      <c r="A230" t="inlineStr"/>
-      <c r="B230" t="inlineStr">
-        <is>
-          <t>Backlog</t>
-        </is>
-      </c>
-      <c r="C230" t="inlineStr">
-        <is>
-          <t>2025</t>
-        </is>
-      </c>
-      <c r="D230" t="inlineStr"/>
-      <c r="E230" t="inlineStr"/>
-      <c r="F230" t="inlineStr">
-        <is>
-          <t>1000028582 - Rastreamento Ativos WEG</t>
-        </is>
-      </c>
-      <c r="G230" t="inlineStr">
         <is>
           <t>WMX-WTD - Novo Prédio Huehuetoca</t>
         </is>
